--- a/InputData/trans/BNVFE/BAU New Veh Fuel Economy.xlsx
+++ b/InputData/trans/BNVFE/BAU New Veh Fuel Economy.xlsx
@@ -8,69 +8,70 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Brazil\Model\InputData\trans\BNVFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB20B903-4EFC-4112-8BE3-487DC18F5676}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B953DD7-FE6E-4437-B247-578EE535691C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1485" yWindow="0" windowWidth="17835" windowHeight="10005" firstSheet="20" activeTab="24" xr2:uid="{2557135F-748F-41B5-80F0-194F56BF39A7}"/>
+    <workbookView xWindow="39240" yWindow="525" windowWidth="19785" windowHeight="12225" firstSheet="6" activeTab="6" xr2:uid="{C59BC34D-7575-4281-BEB0-30F030B7579E}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Calculations Etc" sheetId="18" r:id="rId2"/>
     <sheet name="Ships-freight" sheetId="48" r:id="rId3"/>
     <sheet name="Ships-psgr" sheetId="46" r:id="rId4"/>
-    <sheet name="Air-freight" sheetId="47" r:id="rId5"/>
-    <sheet name="Air-psgr" sheetId="45" r:id="rId6"/>
-    <sheet name="Rail-freight" sheetId="41" r:id="rId7"/>
-    <sheet name="Rail-psgr" sheetId="37" r:id="rId8"/>
+    <sheet name="Rail-freight" sheetId="41" r:id="rId5"/>
+    <sheet name="Rail-psgr" sheetId="37" r:id="rId6"/>
+    <sheet name="Air-psgr" sheetId="45" r:id="rId7"/>
+    <sheet name="Air-freight" sheetId="47" r:id="rId8"/>
     <sheet name="figure 107" sheetId="44" r:id="rId9"/>
     <sheet name="table 95" sheetId="42" r:id="rId10"/>
-    <sheet name="ANPtrilhos" sheetId="39" r:id="rId11"/>
-    <sheet name="table 94" sheetId="38" r:id="rId12"/>
-    <sheet name="LDV-freight" sheetId="33" r:id="rId13"/>
-    <sheet name="LDV-psgr" sheetId="30" r:id="rId14"/>
-    <sheet name="table 15" sheetId="26" r:id="rId15"/>
-    <sheet name="HDV-freight" sheetId="27" r:id="rId16"/>
-    <sheet name="HDV-psgr" sheetId="32" r:id="rId17"/>
-    <sheet name="Average fuel consump" sheetId="29" r:id="rId18"/>
-    <sheet name="figure 4" sheetId="31" r:id="rId19"/>
-    <sheet name="Olivia_relevant tables" sheetId="50" r:id="rId20"/>
-    <sheet name="motorbike-psgr" sheetId="34" r:id="rId21"/>
-    <sheet name="motoclub" sheetId="35" r:id="rId22"/>
-    <sheet name="units_convertor" sheetId="28" r:id="rId23"/>
-    <sheet name="BNVFE for BHNVFE" sheetId="49" r:id="rId24"/>
-    <sheet name="BNVFE-LDVs-psgr" sheetId="2" r:id="rId25"/>
-    <sheet name="BNVFE-LDVs-frgt" sheetId="5" r:id="rId26"/>
-    <sheet name="BNVFE-HDVs-psgr" sheetId="6" r:id="rId27"/>
-    <sheet name="BNVFE-HDVs-frgt" sheetId="7" r:id="rId28"/>
-    <sheet name="BNVFE-aircraft-psgr" sheetId="8" r:id="rId29"/>
-    <sheet name="BNVFE-aircraft-frgt" sheetId="9" r:id="rId30"/>
-    <sheet name="BNVFE-rail-psgr" sheetId="10" r:id="rId31"/>
-    <sheet name="BNVFE-rail-frgt" sheetId="11" r:id="rId32"/>
-    <sheet name="BNVFE-ships-psgr" sheetId="12" r:id="rId33"/>
-    <sheet name="BNVFE-ships-frgt" sheetId="13" r:id="rId34"/>
-    <sheet name="BNVFE-motorbikes-psgr" sheetId="14" r:id="rId35"/>
-    <sheet name="BNVFE-motorbikes-frgt" sheetId="15" r:id="rId36"/>
+    <sheet name="Aircraft Fuel Consump" sheetId="51" r:id="rId11"/>
+    <sheet name="ANPtrilhos" sheetId="39" r:id="rId12"/>
+    <sheet name="table 94" sheetId="38" r:id="rId13"/>
+    <sheet name="LDV-freight" sheetId="33" r:id="rId14"/>
+    <sheet name="LDV-psgr" sheetId="30" r:id="rId15"/>
+    <sheet name="table 15" sheetId="26" r:id="rId16"/>
+    <sheet name="HDV-freight" sheetId="27" r:id="rId17"/>
+    <sheet name="HDV-psgr" sheetId="32" r:id="rId18"/>
+    <sheet name="Average fuel consump" sheetId="29" r:id="rId19"/>
+    <sheet name="figure 4" sheetId="31" r:id="rId20"/>
+    <sheet name="Olivia_relevant tables" sheetId="50" r:id="rId21"/>
+    <sheet name="motorbike-psgr" sheetId="34" r:id="rId22"/>
+    <sheet name="motoclub" sheetId="35" r:id="rId23"/>
+    <sheet name="units_convertor" sheetId="28" r:id="rId24"/>
+    <sheet name="BNVFE for BHNVFE" sheetId="49" r:id="rId25"/>
+    <sheet name="BNVFE-LDVs-psgr" sheetId="2" r:id="rId26"/>
+    <sheet name="BNVFE-LDVs-frgt" sheetId="5" r:id="rId27"/>
+    <sheet name="BNVFE-HDVs-psgr" sheetId="6" r:id="rId28"/>
+    <sheet name="BNVFE-HDVs-frgt" sheetId="7" r:id="rId29"/>
+    <sheet name="BNVFE-aircraft-psgr" sheetId="8" r:id="rId30"/>
+    <sheet name="BNVFE-aircraft-frgt" sheetId="9" r:id="rId31"/>
+    <sheet name="BNVFE-rail-psgr" sheetId="10" r:id="rId32"/>
+    <sheet name="BNVFE-rail-frgt" sheetId="11" r:id="rId33"/>
+    <sheet name="BNVFE-ships-psgr" sheetId="12" r:id="rId34"/>
+    <sheet name="BNVFE-ships-frgt" sheetId="13" r:id="rId35"/>
+    <sheet name="BNVFE-motorbikes-psgr" sheetId="14" r:id="rId36"/>
+    <sheet name="BNVFE-motorbikes-frgt" sheetId="15" r:id="rId37"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId37"/>
     <externalReference r:id="rId38"/>
+    <externalReference r:id="rId39"/>
   </externalReferences>
   <definedNames>
-    <definedName name="Eno_TM" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_TM" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_TM" localSheetId="9">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_TM">'[2]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Eno_Tons" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_Tons" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_Tons" localSheetId="9">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_Tons">'[2]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_T2" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_T2" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_T2" localSheetId="9">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_T2">'[2]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_TTM" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_TTM" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_TTM" localSheetId="9">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_TTM">'[2]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="361">
   <si>
     <t>BNVFE BAU New Vehicle Fuel Economy</t>
   </si>
@@ -690,9 +691,6 @@
     <t>= freight*miles [2015] / energy use of freight aircraft [2015]</t>
   </si>
   <si>
-    <t>TKM (Billions)</t>
-  </si>
-  <si>
     <t>thousands liters</t>
   </si>
   <si>
@@ -1053,9 +1051,6 @@
     <t>1m3</t>
   </si>
   <si>
-    <t>Aircraft freight fuel use (thousand liters)</t>
-  </si>
-  <si>
     <t>Aircraft passenger fuel use (thousand m3)</t>
   </si>
   <si>
@@ -1063,9 +1058,6 @@
   </si>
   <si>
     <t>1l</t>
-  </si>
-  <si>
-    <t>Aircraft freight fuel use (gallons)</t>
   </si>
   <si>
     <t>Ship-freight fuel use (m3)</t>
@@ -1118,12 +1110,72 @@
   <si>
     <t>thing miles/btu</t>
   </si>
+  <si>
+    <t>Fuel consumption</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>Passenger (mil m3)</t>
+  </si>
+  <si>
+    <t>Qav + Biojet</t>
+  </si>
+  <si>
+    <t>Freight (mil m3)</t>
+  </si>
+  <si>
+    <t>Aviation kerosene</t>
+  </si>
+  <si>
+    <t>Gigajoule to Btu</t>
+  </si>
+  <si>
+    <t>1 gigajoule (GJ) = BTU </t>
+  </si>
+  <si>
+    <t>Aircraft passenger fuel use (GJ)</t>
+  </si>
+  <si>
+    <t>*copied from calibration sheet MOP - cargo distance F101</t>
+  </si>
+  <si>
+    <t>Interpolated</t>
+  </si>
+  <si>
+    <t>MOP-cargo distance</t>
+  </si>
+  <si>
+    <t>Air - freight</t>
+  </si>
+  <si>
+    <t>PKM relative to start Yr</t>
+  </si>
+  <si>
+    <t>Aircraft - psgr</t>
+  </si>
+  <si>
+    <t>1 cubic meter to liters</t>
+  </si>
+  <si>
+    <t>liters</t>
+  </si>
+  <si>
+    <t>1 MJ = btu</t>
+  </si>
+  <si>
+    <t>GJ/M3</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
@@ -1134,9 +1186,10 @@
     <numFmt numFmtId="169" formatCode="#,##0.000000000000"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="171" formatCode="_(* #,##0.0000000_);_(* \(#,##0.0000000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="54">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1443,8 +1496,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="36">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1632,8 +1720,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F497D"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC5D9F1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -1889,6 +2007,30 @@
         <color theme="4" tint="-0.24994659260841701"/>
       </right>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -2152,7 +2294,7 @@
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2223,22 +2365,84 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="155" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="36" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="155" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="52" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="38" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="51" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="10" fontId="52" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="39" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="52" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="39" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="52" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="52" fillId="28" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="40" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2400,6 +2604,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFCC00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3433,7 +3642,7 @@
     </row>
     <row r="4" spans="1:16384">
       <c r="B4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:16384">
@@ -3443,17 +3652,17 @@
     </row>
     <row r="6" spans="1:16384">
       <c r="B6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:16384">
       <c r="B7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:16384">
       <c r="B8" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:16384">
@@ -3469,12 +3678,12 @@
     <row r="12" spans="1:16384">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:16384">
       <c r="B13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:16384">
@@ -19853,17 +20062,17 @@
     </row>
     <row r="15" spans="1:16384">
       <c r="B15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:16384">
       <c r="B16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="2:16384">
       <c r="B17" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="2:16384">
@@ -19878,12 +20087,12 @@
     </row>
     <row r="21" spans="2:16384">
       <c r="B21" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="2:16384">
       <c r="B22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" s="27"/>
       <c r="D22" s="27"/>
@@ -36262,17 +36471,17 @@
     </row>
     <row r="24" spans="2:16384">
       <c r="B24" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="2:16384">
       <c r="B25" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="2:16384">
       <c r="B26" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="2:16384">
@@ -36317,7 +36526,7 @@
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="38" spans="2:2">
@@ -36342,12 +36551,12 @@
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="2:2">
@@ -36357,17 +36566,17 @@
     </row>
     <row r="46" spans="2:2">
       <c r="B46" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="2:2">
       <c r="B47" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="49" spans="2:2">
@@ -36382,7 +36591,7 @@
     </row>
     <row r="52" spans="2:2">
       <c r="B52" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="53" spans="2:2">
@@ -36397,7 +36606,7 @@
     </row>
     <row r="55" spans="2:2">
       <c r="B55" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="56" spans="2:2">
@@ -36467,12 +36676,12 @@
     </row>
     <row r="74" spans="2:2">
       <c r="B74" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76" spans="2:2">
@@ -36482,17 +36691,17 @@
     </row>
     <row r="77" spans="2:2">
       <c r="B77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="78" spans="2:2">
       <c r="B78" s="14" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="79" spans="2:2">
       <c r="B79" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -36507,17 +36716,17 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C86" s="17"/>
     </row>
@@ -36526,12 +36735,12 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C89" s="32"/>
     </row>
@@ -36542,7 +36751,7 @@
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -36557,7 +36766,7 @@
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="97" spans="1:1">
@@ -36582,7 +36791,7 @@
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="103" spans="1:1">
@@ -36652,7 +36861,7 @@
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:1">
@@ -36722,7 +36931,7 @@
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="135" spans="1:1">
@@ -36777,7 +36986,7 @@
     </row>
     <row r="146" spans="1:1">
       <c r="A146" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="147" spans="1:1">
@@ -36847,7 +37056,7 @@
     </row>
     <row r="163" spans="1:1">
       <c r="A163" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="164" spans="1:1">
@@ -36867,12 +37076,12 @@
     </row>
     <row r="168" spans="1:1">
       <c r="A168" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="170" spans="1:1">
@@ -36897,7 +37106,7 @@
     </row>
     <row r="175" spans="1:1">
       <c r="A175" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="176" spans="1:1">
@@ -36937,7 +37146,7 @@
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="186" spans="1:1">
@@ -36981,7 +37190,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
@@ -37028,12 +37239,1189 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804A9106-3BA0-4B90-9845-AFCEFC0D7629}">
+  <dimension ref="A1:AM15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="18.46484375" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" ht="15.75">
+      <c r="A1" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+    </row>
+    <row r="2" spans="1:39" ht="15.75">
+      <c r="A2" s="62" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+    </row>
+    <row r="3" spans="1:39">
+      <c r="A3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+    </row>
+    <row r="4" spans="1:39">
+      <c r="A4" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="64">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="64">
+        <v>2018</v>
+      </c>
+      <c r="E4" s="64">
+        <v>2019</v>
+      </c>
+      <c r="F4" s="64">
+        <v>2020</v>
+      </c>
+      <c r="G4" s="64">
+        <v>2021</v>
+      </c>
+      <c r="H4" s="64">
+        <v>2022</v>
+      </c>
+      <c r="I4" s="64">
+        <v>2023</v>
+      </c>
+      <c r="J4" s="64">
+        <v>2024</v>
+      </c>
+      <c r="K4" s="64">
+        <v>2025</v>
+      </c>
+      <c r="L4" s="64">
+        <v>2026</v>
+      </c>
+      <c r="M4" s="64">
+        <v>2027</v>
+      </c>
+      <c r="N4" s="64">
+        <v>2028</v>
+      </c>
+      <c r="O4" s="64">
+        <v>2029</v>
+      </c>
+      <c r="P4" s="64">
+        <v>2030</v>
+      </c>
+      <c r="Q4" s="64">
+        <v>2031</v>
+      </c>
+      <c r="R4" s="64">
+        <v>2032</v>
+      </c>
+      <c r="S4" s="64">
+        <v>2033</v>
+      </c>
+      <c r="T4" s="64">
+        <v>2034</v>
+      </c>
+      <c r="U4" s="64">
+        <v>2035</v>
+      </c>
+      <c r="V4" s="64">
+        <v>2036</v>
+      </c>
+      <c r="W4" s="64">
+        <v>2037</v>
+      </c>
+      <c r="X4" s="64">
+        <v>2038</v>
+      </c>
+      <c r="Y4" s="64">
+        <v>2039</v>
+      </c>
+      <c r="Z4" s="64">
+        <v>2040</v>
+      </c>
+      <c r="AA4" s="64">
+        <v>2041</v>
+      </c>
+      <c r="AB4" s="64">
+        <v>2042</v>
+      </c>
+      <c r="AC4" s="64">
+        <v>2043</v>
+      </c>
+      <c r="AD4" s="64">
+        <v>2044</v>
+      </c>
+      <c r="AE4" s="64">
+        <v>2045</v>
+      </c>
+      <c r="AF4" s="64">
+        <v>2046</v>
+      </c>
+      <c r="AG4" s="64">
+        <v>2047</v>
+      </c>
+      <c r="AH4" s="64">
+        <v>2048</v>
+      </c>
+      <c r="AI4" s="64">
+        <v>2049</v>
+      </c>
+      <c r="AJ4" s="65">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
+      <c r="A5" s="66" t="s">
+        <v>344</v>
+      </c>
+      <c r="B5" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="67">
+        <v>8816.2274940261377</v>
+      </c>
+      <c r="D5" s="67">
+        <v>9457.2069692944169</v>
+      </c>
+      <c r="E5" s="67">
+        <v>10137.293502231209</v>
+      </c>
+      <c r="F5" s="67">
+        <v>10609.137297363666</v>
+      </c>
+      <c r="G5" s="67">
+        <v>11100.26938230877</v>
+      </c>
+      <c r="H5" s="67">
+        <v>11604.303353124693</v>
+      </c>
+      <c r="I5" s="67">
+        <v>12123.705773369673</v>
+      </c>
+      <c r="J5" s="67">
+        <v>12658.801239862645</v>
+      </c>
+      <c r="K5" s="67">
+        <v>13209.920696433435</v>
+      </c>
+      <c r="L5" s="67">
+        <v>13733.74242370034</v>
+      </c>
+      <c r="M5" s="67">
+        <v>14270.711222776974</v>
+      </c>
+      <c r="N5" s="67">
+        <v>14821.033149340497</v>
+      </c>
+      <c r="O5" s="67">
+        <v>15384.917442752112</v>
+      </c>
+      <c r="P5" s="67">
+        <v>15962.576553103831</v>
+      </c>
+      <c r="Q5" s="67">
+        <v>16200.146430178909</v>
+      </c>
+      <c r="R5" s="67">
+        <v>16430.235587650048</v>
+      </c>
+      <c r="S5" s="67">
+        <v>16652.788374474556</v>
+      </c>
+      <c r="T5" s="67">
+        <v>16867.760476087537</v>
+      </c>
+      <c r="U5" s="67">
+        <v>17075.11842084879</v>
+      </c>
+      <c r="V5" s="67">
+        <v>17223.736333635024</v>
+      </c>
+      <c r="W5" s="67">
+        <v>17363.720234516459</v>
+      </c>
+      <c r="X5" s="67">
+        <v>17495.138636322219</v>
+      </c>
+      <c r="Y5" s="67">
+        <v>17618.068545519047</v>
+      </c>
+      <c r="Z5" s="67">
+        <v>17732.594899320789</v>
+      </c>
+      <c r="AA5" s="67">
+        <v>17780.136647725933</v>
+      </c>
+      <c r="AB5" s="67">
+        <v>17819.019993584221</v>
+      </c>
+      <c r="AC5" s="67">
+        <v>17849.432653105574</v>
+      </c>
+      <c r="AD5" s="67">
+        <v>17871.566217121952</v>
+      </c>
+      <c r="AE5" s="67">
+        <v>17885.615612736263</v>
+      </c>
+      <c r="AF5" s="67">
+        <v>17845.228638678633</v>
+      </c>
+      <c r="AG5" s="67">
+        <v>17797.284372876013</v>
+      </c>
+      <c r="AH5" s="67">
+        <v>17742.042716325359</v>
+      </c>
+      <c r="AI5" s="67">
+        <v>17679.762613446987</v>
+      </c>
+      <c r="AJ5" s="67">
+        <v>17610.701646517784</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
+      <c r="A6" s="66" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="66" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="67">
+        <v>459202.15358945727</v>
+      </c>
+      <c r="D6" s="67">
+        <v>474638.54206369328</v>
+      </c>
+      <c r="E6" s="67">
+        <v>490626.9519055672</v>
+      </c>
+      <c r="F6" s="67">
+        <v>507188.46237571118</v>
+      </c>
+      <c r="G6" s="67">
+        <v>511824.15678489435</v>
+      </c>
+      <c r="H6" s="67">
+        <v>516502.75381073891</v>
+      </c>
+      <c r="I6" s="67">
+        <v>521224.65585612203</v>
+      </c>
+      <c r="J6" s="67">
+        <v>525990.26915124792</v>
+      </c>
+      <c r="K6" s="67">
+        <v>530800.00379056809</v>
+      </c>
+      <c r="L6" s="67">
+        <v>529569.72047229134</v>
+      </c>
+      <c r="M6" s="67">
+        <v>528342.28980678727</v>
+      </c>
+      <c r="N6" s="67">
+        <v>527117.70517699188</v>
+      </c>
+      <c r="O6" s="67">
+        <v>525895.95998119668</v>
+      </c>
+      <c r="P6" s="67">
+        <v>514042.77524649707</v>
+      </c>
+      <c r="Q6" s="67">
+        <v>511233.6285323003</v>
+      </c>
+      <c r="R6" s="67">
+        <v>508439.839057356</v>
+      </c>
+      <c r="S6" s="67">
+        <v>505661.32283344655</v>
+      </c>
+      <c r="T6" s="67">
+        <v>502897.99633186212</v>
+      </c>
+      <c r="U6" s="67">
+        <v>500149.7764808858</v>
+      </c>
+      <c r="V6" s="67">
+        <v>498440.03226826829</v>
+      </c>
+      <c r="W6" s="67">
+        <v>496736.13554489915</v>
+      </c>
+      <c r="X6" s="67">
+        <v>495038.06630206871</v>
+      </c>
+      <c r="Y6" s="67">
+        <v>493345.80459956621</v>
+      </c>
+      <c r="Z6" s="67">
+        <v>471992.95734282734</v>
+      </c>
+      <c r="AA6" s="67">
+        <v>472438.87150749558</v>
+      </c>
+      <c r="AB6" s="67">
+        <v>472885.20787823416</v>
+      </c>
+      <c r="AC6" s="67">
+        <v>473331.96685563761</v>
+      </c>
+      <c r="AD6" s="67">
+        <v>473779.1488406813</v>
+      </c>
+      <c r="AE6" s="67">
+        <v>474226.75423472159</v>
+      </c>
+      <c r="AF6" s="67">
+        <v>477042.19972750032</v>
+      </c>
+      <c r="AG6" s="67">
+        <v>479874.36044238677</v>
+      </c>
+      <c r="AH6" s="67">
+        <v>482723.33561809419</v>
+      </c>
+      <c r="AI6" s="67">
+        <v>485589.22508252377</v>
+      </c>
+      <c r="AJ6" s="67">
+        <v>488472.12925626285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
+      <c r="A8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
+      <c r="A9" s="74" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9" s="76">
+        <v>2013</v>
+      </c>
+      <c r="C9" s="76">
+        <v>2014</v>
+      </c>
+      <c r="D9" s="76">
+        <v>2015</v>
+      </c>
+      <c r="E9" s="76">
+        <v>2016</v>
+      </c>
+      <c r="F9" s="86">
+        <v>2017</v>
+      </c>
+      <c r="G9" s="76">
+        <v>2018</v>
+      </c>
+      <c r="H9" s="78">
+        <v>2019</v>
+      </c>
+      <c r="I9" s="78">
+        <v>2020</v>
+      </c>
+      <c r="J9" s="78">
+        <v>2021</v>
+      </c>
+      <c r="K9" s="78">
+        <v>2022</v>
+      </c>
+      <c r="L9" s="78">
+        <v>2023</v>
+      </c>
+      <c r="M9" s="78">
+        <v>2024</v>
+      </c>
+      <c r="N9" s="78">
+        <v>2025</v>
+      </c>
+      <c r="O9" s="78">
+        <v>2026</v>
+      </c>
+      <c r="P9" s="78">
+        <v>2027</v>
+      </c>
+      <c r="Q9" s="78">
+        <v>2028</v>
+      </c>
+      <c r="R9" s="78">
+        <v>2029</v>
+      </c>
+      <c r="S9" s="78">
+        <v>2030</v>
+      </c>
+      <c r="T9" s="78">
+        <v>2031</v>
+      </c>
+      <c r="U9" s="78">
+        <v>2032</v>
+      </c>
+      <c r="V9" s="78">
+        <v>2033</v>
+      </c>
+      <c r="W9" s="78">
+        <v>2034</v>
+      </c>
+      <c r="X9" s="78">
+        <v>2035</v>
+      </c>
+      <c r="Y9" s="78">
+        <v>2036</v>
+      </c>
+      <c r="Z9" s="78">
+        <v>2037</v>
+      </c>
+      <c r="AA9" s="78">
+        <v>2038</v>
+      </c>
+      <c r="AB9" s="78">
+        <v>2039</v>
+      </c>
+      <c r="AC9" s="78">
+        <v>2040</v>
+      </c>
+      <c r="AD9" s="78">
+        <v>2041</v>
+      </c>
+      <c r="AE9" s="78">
+        <v>2042</v>
+      </c>
+      <c r="AF9" s="78">
+        <v>2043</v>
+      </c>
+      <c r="AG9" s="78">
+        <v>2044</v>
+      </c>
+      <c r="AH9" s="78">
+        <v>2045</v>
+      </c>
+      <c r="AI9" s="78">
+        <v>2046</v>
+      </c>
+      <c r="AJ9" s="78">
+        <v>2047</v>
+      </c>
+      <c r="AK9" s="78">
+        <v>2048</v>
+      </c>
+      <c r="AL9" s="78">
+        <v>2049</v>
+      </c>
+      <c r="AM9" s="78">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
+      <c r="A10" s="75" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="77">
+        <v>8635</v>
+      </c>
+      <c r="C10" s="77">
+        <v>8716.1428571428569</v>
+      </c>
+      <c r="D10" s="77">
+        <v>8797.2857142857138</v>
+      </c>
+      <c r="E10" s="77">
+        <v>8878.4285714285706</v>
+      </c>
+      <c r="F10" s="87">
+        <v>8959.5714285714275</v>
+      </c>
+      <c r="G10" s="77">
+        <v>9040.7142857142862</v>
+      </c>
+      <c r="H10" s="79">
+        <v>9121.8571428571431</v>
+      </c>
+      <c r="I10" s="79">
+        <v>9203</v>
+      </c>
+      <c r="J10" s="79">
+        <v>9114.4</v>
+      </c>
+      <c r="K10" s="79">
+        <v>9025.7999999999993</v>
+      </c>
+      <c r="L10" s="79">
+        <v>8937.2000000000007</v>
+      </c>
+      <c r="M10" s="79">
+        <v>8848.6</v>
+      </c>
+      <c r="N10" s="79">
+        <v>8760</v>
+      </c>
+      <c r="O10" s="79">
+        <v>8671.4</v>
+      </c>
+      <c r="P10" s="79">
+        <v>8582.7999999999993</v>
+      </c>
+      <c r="Q10" s="79">
+        <v>8494.2000000000007</v>
+      </c>
+      <c r="R10" s="79">
+        <v>8405.6</v>
+      </c>
+      <c r="S10" s="79">
+        <v>8317</v>
+      </c>
+      <c r="T10" s="79">
+        <v>8442.6</v>
+      </c>
+      <c r="U10" s="79">
+        <v>8568.2000000000007</v>
+      </c>
+      <c r="V10" s="79">
+        <v>8693.7999999999993</v>
+      </c>
+      <c r="W10" s="79">
+        <v>8819.4</v>
+      </c>
+      <c r="X10" s="79">
+        <v>8945</v>
+      </c>
+      <c r="Y10" s="79">
+        <v>9070.6</v>
+      </c>
+      <c r="Z10" s="79">
+        <v>9196.2000000000007</v>
+      </c>
+      <c r="AA10" s="79">
+        <v>9321.7999999999993</v>
+      </c>
+      <c r="AB10" s="79">
+        <v>9447.4</v>
+      </c>
+      <c r="AC10" s="79">
+        <v>9573</v>
+      </c>
+      <c r="AD10" s="79">
+        <v>9814.2999999999993</v>
+      </c>
+      <c r="AE10" s="79">
+        <v>10055.6</v>
+      </c>
+      <c r="AF10" s="79">
+        <v>10296.9</v>
+      </c>
+      <c r="AG10" s="79">
+        <v>10538.2</v>
+      </c>
+      <c r="AH10" s="79">
+        <v>10779.5</v>
+      </c>
+      <c r="AI10" s="79">
+        <v>11020.8</v>
+      </c>
+      <c r="AJ10" s="79">
+        <v>11262.1</v>
+      </c>
+      <c r="AK10" s="79">
+        <v>11503.4</v>
+      </c>
+      <c r="AL10" s="79">
+        <v>11744.7</v>
+      </c>
+      <c r="AM10" s="79">
+        <v>11986</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="A11" s="75" t="s">
+        <v>352</v>
+      </c>
+      <c r="B11" s="77">
+        <v>8635</v>
+      </c>
+      <c r="C11" s="77">
+        <v>8716.1428571428569</v>
+      </c>
+      <c r="D11" s="77">
+        <v>8797.2857142857138</v>
+      </c>
+      <c r="E11" s="77">
+        <v>8878.4285714285706</v>
+      </c>
+      <c r="F11" s="87">
+        <v>8959.5714285714275</v>
+      </c>
+      <c r="G11" s="77">
+        <v>9040.7142857142862</v>
+      </c>
+      <c r="H11" s="79">
+        <v>9121.8571428571431</v>
+      </c>
+      <c r="I11" s="79">
+        <v>9203</v>
+      </c>
+      <c r="J11" s="79">
+        <v>9114.4</v>
+      </c>
+      <c r="K11" s="79">
+        <v>9025.7999999999993</v>
+      </c>
+      <c r="L11" s="79">
+        <v>8937.2000000000007</v>
+      </c>
+      <c r="M11" s="79">
+        <v>8848.6</v>
+      </c>
+      <c r="N11" s="79">
+        <v>8760</v>
+      </c>
+      <c r="O11" s="79">
+        <v>8671.4</v>
+      </c>
+      <c r="P11" s="79">
+        <v>8582.7999999999993</v>
+      </c>
+      <c r="Q11" s="79">
+        <v>8494.2000000000007</v>
+      </c>
+      <c r="R11" s="79">
+        <v>8405.6</v>
+      </c>
+      <c r="S11" s="79">
+        <v>8317</v>
+      </c>
+      <c r="T11" s="79">
+        <v>8442.6</v>
+      </c>
+      <c r="U11" s="79">
+        <v>8568.2000000000007</v>
+      </c>
+      <c r="V11" s="79">
+        <v>8693.7999999999993</v>
+      </c>
+      <c r="W11" s="79">
+        <v>8819.4</v>
+      </c>
+      <c r="X11" s="79">
+        <v>8945</v>
+      </c>
+      <c r="Y11" s="79">
+        <v>9070.6</v>
+      </c>
+      <c r="Z11" s="79">
+        <v>9196.2000000000007</v>
+      </c>
+      <c r="AA11" s="79">
+        <v>9321.7999999999993</v>
+      </c>
+      <c r="AB11" s="79">
+        <v>9447.4</v>
+      </c>
+      <c r="AC11" s="79">
+        <v>9573</v>
+      </c>
+      <c r="AD11" s="79">
+        <v>9814.2999999999993</v>
+      </c>
+      <c r="AE11" s="79">
+        <v>10055.6</v>
+      </c>
+      <c r="AF11" s="79">
+        <v>10296.9</v>
+      </c>
+      <c r="AG11" s="79">
+        <v>10538.2</v>
+      </c>
+      <c r="AH11" s="79">
+        <v>10779.5</v>
+      </c>
+      <c r="AI11" s="79">
+        <v>11020.8</v>
+      </c>
+      <c r="AJ11" s="79">
+        <v>11262.1</v>
+      </c>
+      <c r="AK11" s="79">
+        <v>11503.4</v>
+      </c>
+      <c r="AL11" s="79">
+        <v>11744.7</v>
+      </c>
+      <c r="AM11" s="79">
+        <v>11986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
+      <c r="F12" s="32"/>
+    </row>
+    <row r="13" spans="1:39">
+      <c r="A13" s="80" t="s">
+        <v>356</v>
+      </c>
+      <c r="B13" s="81">
+        <v>2013</v>
+      </c>
+      <c r="C13" s="81">
+        <v>2014</v>
+      </c>
+      <c r="D13" s="81">
+        <v>2015</v>
+      </c>
+      <c r="E13" s="81">
+        <v>2016</v>
+      </c>
+      <c r="F13" s="88">
+        <v>2017</v>
+      </c>
+      <c r="G13" s="81">
+        <v>2018</v>
+      </c>
+      <c r="H13" s="81">
+        <v>2019</v>
+      </c>
+      <c r="I13" s="81">
+        <v>2020</v>
+      </c>
+      <c r="J13" s="81">
+        <v>2021</v>
+      </c>
+      <c r="K13" s="81">
+        <v>2022</v>
+      </c>
+      <c r="L13" s="81">
+        <v>2023</v>
+      </c>
+      <c r="M13" s="81">
+        <v>2024</v>
+      </c>
+      <c r="N13" s="81">
+        <v>2025</v>
+      </c>
+      <c r="O13" s="81">
+        <v>2026</v>
+      </c>
+      <c r="P13" s="81">
+        <v>2027</v>
+      </c>
+      <c r="Q13" s="81">
+        <v>2028</v>
+      </c>
+      <c r="R13" s="81">
+        <v>2029</v>
+      </c>
+      <c r="S13" s="81">
+        <v>2030</v>
+      </c>
+      <c r="T13" s="81">
+        <v>2031</v>
+      </c>
+      <c r="U13" s="81">
+        <v>2032</v>
+      </c>
+      <c r="V13" s="81">
+        <v>2033</v>
+      </c>
+      <c r="W13" s="81">
+        <v>2034</v>
+      </c>
+      <c r="X13" s="81">
+        <v>2035</v>
+      </c>
+      <c r="Y13" s="81">
+        <v>2036</v>
+      </c>
+      <c r="Z13" s="81">
+        <v>2037</v>
+      </c>
+      <c r="AA13" s="81">
+        <v>2038</v>
+      </c>
+      <c r="AB13" s="81">
+        <v>2039</v>
+      </c>
+      <c r="AC13" s="81">
+        <v>2040</v>
+      </c>
+      <c r="AD13" s="81">
+        <v>2041</v>
+      </c>
+      <c r="AE13" s="81">
+        <v>2042</v>
+      </c>
+      <c r="AF13" s="81">
+        <v>2043</v>
+      </c>
+      <c r="AG13" s="81">
+        <v>2044</v>
+      </c>
+      <c r="AH13" s="81">
+        <v>2045</v>
+      </c>
+      <c r="AI13" s="81">
+        <v>2046</v>
+      </c>
+      <c r="AJ13" s="81">
+        <v>2047</v>
+      </c>
+      <c r="AK13" s="81">
+        <v>2048</v>
+      </c>
+      <c r="AL13" s="81">
+        <v>2049</v>
+      </c>
+      <c r="AM13" s="81">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
+      <c r="A14" s="82" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="83">
+        <v>210.86106691846899</v>
+      </c>
+      <c r="C14" s="83">
+        <v>221.6149813313109</v>
+      </c>
+      <c r="D14" s="83">
+        <v>239.3441798378158</v>
+      </c>
+      <c r="E14" s="83">
+        <v>259.46721426329538</v>
+      </c>
+      <c r="F14" s="89">
+        <v>279.17105136282845</v>
+      </c>
+      <c r="G14" s="83">
+        <v>301.50473547185476</v>
+      </c>
+      <c r="H14" s="83">
+        <v>325.62511430960308</v>
+      </c>
+      <c r="I14" s="83">
+        <v>343.59646196221286</v>
+      </c>
+      <c r="J14" s="83">
+        <v>362.4875013210625</v>
+      </c>
+      <c r="K14" s="83">
+        <v>382.41717584518597</v>
+      </c>
+      <c r="L14" s="83">
+        <v>403.44259001602802</v>
+      </c>
+      <c r="M14" s="83">
+        <v>425.62398793702056</v>
+      </c>
+      <c r="N14" s="83">
+        <v>449.02492595096635</v>
+      </c>
+      <c r="O14" s="83">
+        <v>472.21131087829741</v>
+      </c>
+      <c r="P14" s="83">
+        <v>496.59497554429737</v>
+      </c>
+      <c r="Q14" s="83">
+        <v>522.23774410901183</v>
+      </c>
+      <c r="R14" s="83">
+        <v>549.20463315831785</v>
+      </c>
+      <c r="S14" s="83">
+        <v>577.56401655182026</v>
+      </c>
+      <c r="T14" s="83">
+        <v>598.22148488591483</v>
+      </c>
+      <c r="U14" s="83">
+        <v>619.61779945305864</v>
+      </c>
+      <c r="V14" s="83">
+        <v>641.77938622894533</v>
+      </c>
+      <c r="W14" s="83">
+        <v>664.73361635506944</v>
+      </c>
+      <c r="X14" s="83">
+        <v>688.50883994403921</v>
+      </c>
+      <c r="Y14" s="83">
+        <v>711.02481306173343</v>
+      </c>
+      <c r="Z14" s="83">
+        <v>734.277115208228</v>
+      </c>
+      <c r="AA14" s="83">
+        <v>758.28982619725502</v>
+      </c>
+      <c r="AB14" s="83">
+        <v>783.08781331310092</v>
+      </c>
+      <c r="AC14" s="83">
+        <v>808.69675706287887</v>
+      </c>
+      <c r="AD14" s="83">
+        <v>832.80175273448015</v>
+      </c>
+      <c r="AE14" s="83">
+        <v>857.62525112202945</v>
+      </c>
+      <c r="AF14" s="83">
+        <v>883.18866878829465</v>
+      </c>
+      <c r="AG14" s="83">
+        <v>909.51406066407026</v>
+      </c>
+      <c r="AH14" s="83">
+        <v>936.62413907614882</v>
+      </c>
+      <c r="AI14" s="83">
+        <v>962.03279438668005</v>
+      </c>
+      <c r="AJ14" s="83">
+        <v>988.13073341066172</v>
+      </c>
+      <c r="AK14" s="83">
+        <v>1014.9366549746079</v>
+      </c>
+      <c r="AL14" s="83">
+        <v>1042.4697651651163</v>
+      </c>
+      <c r="AM14" s="83">
+        <v>1070.7497910897712</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39">
+      <c r="A15" s="84" t="s">
+        <v>355</v>
+      </c>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
+      <c r="F15" s="90">
+        <v>1</v>
+      </c>
+      <c r="G15" s="85">
+        <v>1.08</v>
+      </c>
+      <c r="H15" s="85">
+        <v>1.1663999999999999</v>
+      </c>
+      <c r="I15" s="85">
+        <v>1.2307739655844654</v>
+      </c>
+      <c r="J15" s="85">
+        <v>1.298442297478583</v>
+      </c>
+      <c r="K15" s="85">
+        <v>1.3698310551124167</v>
+      </c>
+      <c r="L15" s="85">
+        <v>1.4451447886395943</v>
+      </c>
+      <c r="M15" s="85">
+        <v>1.5245992944442244</v>
+      </c>
+      <c r="N15" s="85">
+        <v>1.6084222334621114</v>
+      </c>
+      <c r="O15" s="85">
+        <v>1.6914766361809541</v>
+      </c>
+      <c r="P15" s="85">
+        <v>1.7788197347829269</v>
+      </c>
+      <c r="Q15" s="85">
+        <v>1.8706729854675312</v>
+      </c>
+      <c r="R15" s="85">
+        <v>1.9672692798098774</v>
+      </c>
+      <c r="S15" s="85">
+        <v>2.0688535352513373</v>
+      </c>
+      <c r="T15" s="85">
+        <v>2.1428492745418226</v>
+      </c>
+      <c r="U15" s="85">
+        <v>2.2194915856363773</v>
+      </c>
+      <c r="V15" s="85">
+        <v>2.2988751272596959</v>
+      </c>
+      <c r="W15" s="85">
+        <v>2.3810979437518376</v>
+      </c>
+      <c r="X15" s="85">
+        <v>2.4662615861599826</v>
+      </c>
+      <c r="Y15" s="85">
+        <v>2.5469145514577023</v>
+      </c>
+      <c r="Z15" s="85">
+        <v>2.6302050718500709</v>
+      </c>
+      <c r="AA15" s="85">
+        <v>2.7162194020315287</v>
+      </c>
+      <c r="AB15" s="85">
+        <v>2.8050466174422586</v>
+      </c>
+      <c r="AC15" s="85">
+        <v>2.8967787065136821</v>
+      </c>
+      <c r="AD15" s="85">
+        <v>2.9831236035004145</v>
+      </c>
+      <c r="AE15" s="85">
+        <v>3.072042201135694</v>
+      </c>
+      <c r="AF15" s="85">
+        <v>3.1636112142603441</v>
+      </c>
+      <c r="AG15" s="85">
+        <v>3.2579096443707121</v>
+      </c>
+      <c r="AH15" s="85">
+        <v>3.355018847777496</v>
+      </c>
+      <c r="AI15" s="85">
+        <v>3.4460334969916384</v>
+      </c>
+      <c r="AJ15" s="85">
+        <v>3.5395171834146377</v>
+      </c>
+      <c r="AK15" s="85">
+        <v>3.6355368868655789</v>
+      </c>
+      <c r="AL15" s="85">
+        <v>3.7341614041860534</v>
+      </c>
+      <c r="AM15" s="85">
+        <v>3.835461398532173</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A3:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -37059,7 +38447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -37108,13 +38496,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -37129,7 +38515,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -37171,7 +38557,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B13">
         <f>B12*units_convertor!A4</f>
@@ -37225,13 +38611,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -37279,7 +38663,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="C11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -37329,13 +38713,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -37362,7 +38744,7 @@
         <v>75</v>
       </c>
       <c r="N6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -37380,7 +38762,7 @@
         <v>9.5</v>
       </c>
       <c r="P7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -37398,7 +38780,7 @@
         <v>0.27745585106382592</v>
       </c>
       <c r="P8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -37416,7 +38798,7 @@
         <v>0.87621564473504143</v>
       </c>
       <c r="P9" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -37434,7 +38816,7 @@
         <v>0.6810577147590553</v>
       </c>
       <c r="P10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -37452,7 +38834,7 @@
         <v>1.1976305052719813</v>
       </c>
       <c r="P11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -37470,7 +38852,7 @@
         <v>1.1532172744179208</v>
       </c>
       <c r="P12" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -37484,7 +38866,7 @@
         <v>4.1855769902478253</v>
       </c>
       <c r="P13" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -37493,13 +38875,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -37547,44 +38927,44 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>334</v>
-      </c>
-      <c r="B12" s="59">
+        <v>331</v>
+      </c>
+      <c r="B12" s="57">
         <f>'table 15'!O13</f>
         <v>4.1855769902478253</v>
       </c>
       <c r="C12" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="59">
+        <v>240</v>
+      </c>
+      <c r="B13" s="57">
         <f>B12*units_convertor!A4</f>
         <v>9.8444770810628839</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>340</v>
-      </c>
-      <c r="B14" s="59">
+        <v>337</v>
+      </c>
+      <c r="B14" s="57">
         <f>B13*A20</f>
         <v>63.595321943666228</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>341</v>
-      </c>
-      <c r="B15" s="60">
+        <v>338</v>
+      </c>
+      <c r="B15" s="58">
         <f>B14/units_convertor!B8</f>
         <v>4.6267294723733541E-4</v>
       </c>
@@ -37593,7 +38973,7 @@
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="61">
+      <c r="B17" s="59">
         <f>B15</f>
         <v>4.6267294723733541E-4</v>
       </c>
@@ -37641,13 +39021,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -37717,13 +39095,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:N69"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -37772,29 +39148,29 @@
         <v>7.6</v>
       </c>
       <c r="H8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="I8" s="14" t="s">
-        <v>240</v>
-      </c>
     </row>
     <row r="9" spans="1:14">
-      <c r="G9" s="59">
+      <c r="G9" s="57">
         <f>100/G8</f>
         <v>13.157894736842106</v>
       </c>
       <c r="H9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:14">
-      <c r="G10" s="62">
+      <c r="G10" s="60">
         <f>G9*units_convertor!A4</f>
         <v>30.947368421052634</v>
       </c>
       <c r="H10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -37802,7 +39178,7 @@
         <v>1.5</v>
       </c>
       <c r="H11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -37811,47 +39187,47 @@
         <v>3.8531369427586366E-4</v>
       </c>
       <c r="H12" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="21">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="72" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="72"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="72"/>
+      <c r="K14" s="72"/>
+      <c r="L14" s="72"/>
+      <c r="M14" s="72"/>
+      <c r="N14" s="72"/>
+    </row>
+    <row r="15" spans="1:14" ht="16.149999999999999" thickBot="1">
+      <c r="A15" s="73" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-    </row>
-    <row r="15" spans="1:14" ht="16.149999999999999" thickBot="1">
-      <c r="A15" s="64" t="s">
-        <v>245</v>
-      </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="64"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+      <c r="N15" s="73"/>
     </row>
     <row r="16" spans="1:14" ht="14.65" thickBot="1">
       <c r="A16" s="43"/>
@@ -37897,22 +39273,22 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="45" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B17" s="46">
         <v>8.3000000000000007</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D17" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E17" s="46">
         <v>8.3000000000000007</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G17" s="46">
         <v>8</v>
@@ -37941,22 +39317,22 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="47" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B18" s="48">
         <v>10.5</v>
       </c>
       <c r="C18" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D18" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E18" s="48">
         <v>9.8000000000000007</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G18" s="48">
         <v>9.5</v>
@@ -37983,34 +39359,34 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B19" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D19" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E19" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F19" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H19" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I19" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J19" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K19" s="46">
         <v>6</v>
@@ -38027,34 +39403,34 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="47" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C20" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D20" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E20" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F20" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G20" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H20" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J20" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K20" s="48">
         <v>5.7</v>
@@ -38071,22 +39447,22 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="49" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B21" s="50">
         <v>8.5</v>
       </c>
       <c r="C21" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D21" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E21" s="50">
         <v>8.5</v>
       </c>
       <c r="F21" s="50" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G21" s="50">
         <v>8.6999999999999993</v>
@@ -38115,40 +39491,40 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="47" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C22" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D22" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E22" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G22" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H22" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I22" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J22" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K22" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L22" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M22" s="48">
         <v>5.9</v>
@@ -38159,22 +39535,22 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B23" s="46">
         <v>10.1</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D23" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E23" s="46">
         <v>9.8000000000000007</v>
       </c>
       <c r="F23" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G23" s="46">
         <v>9.5</v>
@@ -38203,22 +39579,22 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="47" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B24" s="48">
         <v>8.5</v>
       </c>
       <c r="C24" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D24" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E24" s="48">
         <v>8.3000000000000007</v>
       </c>
       <c r="F24" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G24" s="48">
         <v>8.9</v>
@@ -38247,22 +39623,22 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="45" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B25" s="46">
         <v>8.6999999999999993</v>
       </c>
       <c r="C25" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D25" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E25" s="46">
         <v>8.8000000000000007</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G25" s="46">
         <v>8.6999999999999993</v>
@@ -38291,40 +39667,40 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="47" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B26" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D26" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E26" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F26" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G26" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H26" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I26" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J26" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K26" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L26" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M26" s="48">
         <v>5.2</v>
@@ -38335,40 +39711,40 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="45" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B27" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C27" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D27" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E27" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G27" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H27" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I27" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J27" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K27" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L27" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M27" s="46">
         <v>5.7</v>
@@ -38379,40 +39755,40 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="47" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B28" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C28" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D28" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E28" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F28" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G28" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H28" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I28" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J28" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K28" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L28" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M28" s="48">
         <v>5.7</v>
@@ -38423,34 +39799,34 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D29" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E29" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G29" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H29" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I29" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J29" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K29" s="46">
         <v>5.4</v>
@@ -38467,28 +39843,28 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B30" s="48">
         <v>8.1</v>
       </c>
       <c r="C30" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D30" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E30" s="48">
         <v>8.1</v>
       </c>
       <c r="F30" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G30" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H30" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I30" s="48">
         <v>8.1999999999999993</v>
@@ -38511,40 +39887,40 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="45" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B31" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C31" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D31" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E31" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F31" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G31" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H31" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I31" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J31" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K31" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L31" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M31" s="46">
         <v>6.4</v>
@@ -38555,34 +39931,34 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="47" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B32" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C32" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D32" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E32" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F32" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G32" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H32" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I32" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J32" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K32" s="48">
         <v>6.1</v>
@@ -38599,22 +39975,22 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="45" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B33" s="46">
         <v>6.5</v>
       </c>
       <c r="C33" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D33" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E33" s="46">
         <v>6</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G33" s="46">
         <v>6</v>
@@ -38643,22 +40019,22 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="47" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B34" s="48">
         <v>7.4</v>
       </c>
       <c r="C34" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D34" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E34" s="48">
         <v>7.3</v>
       </c>
       <c r="F34" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G34" s="48">
         <v>7.1</v>
@@ -38687,34 +40063,34 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="45" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B35" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C35" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D35" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E35" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F35" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G35" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H35" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I35" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J35" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K35" s="46">
         <v>5.0999999999999996</v>
@@ -38731,40 +40107,40 @@
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C36" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D36" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E36" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F36" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G36" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H36" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I36" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J36" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K36" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L36" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M36" s="48">
         <v>6.1</v>
@@ -38775,40 +40151,40 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="45" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B37" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C37" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D37" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E37" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F37" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G37" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H37" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I37" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J37" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K37" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L37" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M37" s="46">
         <v>5.7</v>
@@ -38819,22 +40195,22 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="47" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B38" s="48">
         <v>6.8</v>
       </c>
       <c r="C38" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D38" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E38" s="48">
         <v>6.3</v>
       </c>
       <c r="F38" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G38" s="48">
         <v>6.5</v>
@@ -38863,22 +40239,22 @@
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="45" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B39" s="46">
         <v>8.6</v>
       </c>
       <c r="C39" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D39" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E39" s="46">
         <v>8.6999999999999993</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G39" s="46">
         <v>8.6999999999999993</v>
@@ -38907,34 +40283,34 @@
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="47" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C40" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D40" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E40" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F40" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G40" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H40" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I40" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J40" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K40" s="48">
         <v>5.4</v>
@@ -38951,22 +40327,22 @@
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B41" s="46">
         <v>6.3</v>
       </c>
       <c r="C41" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D41" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E41" s="46">
         <v>6.4</v>
       </c>
       <c r="F41" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G41" s="46">
         <v>6.4</v>
@@ -38995,22 +40371,22 @@
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B42" s="48">
         <v>7.7</v>
       </c>
       <c r="C42" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D42" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E42" s="48">
         <v>7</v>
       </c>
       <c r="F42" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G42" s="48">
         <v>7</v>
@@ -39039,22 +40415,22 @@
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B43" s="46">
         <v>8.1</v>
       </c>
       <c r="C43" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D43" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E43" s="46">
         <v>7.8</v>
       </c>
       <c r="F43" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G43" s="46">
         <v>7.3</v>
@@ -39081,40 +40457,40 @@
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B44" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C44" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D44" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E44" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F44" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G44" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H44" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I44" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J44" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K44" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L44" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M44" s="48">
         <v>6</v>
@@ -39125,40 +40501,40 @@
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="45" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B45" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C45" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D45" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E45" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F45" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G45" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H45" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I45" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J45" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K45" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L45" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M45" s="46">
         <v>6</v>
@@ -39169,34 +40545,34 @@
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B46" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C46" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D46" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E46" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F46" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G46" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H46" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I46" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J46" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K46" s="48">
         <v>5.9</v>
@@ -39213,28 +40589,28 @@
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B47" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C47" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D47" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E47" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F47" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G47" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H47" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I47" s="46">
         <v>6.4</v>
@@ -39243,36 +40619,36 @@
         <v>6.2</v>
       </c>
       <c r="K47" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L47" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M47" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N47" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B48" s="48">
         <v>8.1999999999999993</v>
       </c>
       <c r="C48" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D48" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E48" s="48">
         <v>8.3000000000000007</v>
       </c>
       <c r="F48" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G48" s="48">
         <v>7.9</v>
@@ -39301,40 +40677,40 @@
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B49" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C49" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D49" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E49" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F49" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G49" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H49" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I49" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J49" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K49" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L49" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M49" s="46">
         <v>5.3</v>
@@ -39345,22 +40721,22 @@
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B50" s="48">
         <v>9.1</v>
       </c>
       <c r="C50" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D50" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E50" s="48">
         <v>9.4</v>
       </c>
       <c r="F50" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G50" s="48">
         <v>9.5</v>
@@ -39387,34 +40763,34 @@
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B51" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C51" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D51" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E51" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F51" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G51" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H51" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I51" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J51" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K51" s="46">
         <v>5.4</v>
@@ -39431,34 +40807,34 @@
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="47" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B52" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C52" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D52" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E52" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F52" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G52" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H52" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I52" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J52" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K52" s="48">
         <v>5.9</v>
@@ -39467,36 +40843,36 @@
         <v>5.8</v>
       </c>
       <c r="M52" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N52" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="45" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B53" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D53" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E53" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F53" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G53" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H53" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I53" s="46">
         <v>8.3000000000000007</v>
@@ -39519,28 +40895,28 @@
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B54" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D54" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E54" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F54" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G54" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H54" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I54" s="48">
         <v>9.1</v>
@@ -39563,40 +40939,40 @@
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="45" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B55" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D55" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E55" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F55" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G55" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H55" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I55" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J55" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K55" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L55" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M55" s="46">
         <v>6.1</v>
@@ -39607,34 +40983,34 @@
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B56" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C56" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D56" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E56" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F56" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G56" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H56" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I56" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J56" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K56" s="48">
         <v>5</v>
@@ -39651,40 +41027,40 @@
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B57" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D57" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E57" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F57" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G57" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H57" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I57" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J57" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K57" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L57" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M57" s="46">
         <v>5.7</v>
@@ -39695,22 +41071,22 @@
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="47" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B58" s="48">
         <v>9.3000000000000007</v>
       </c>
       <c r="C58" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D58" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E58" s="48">
         <v>9</v>
       </c>
       <c r="F58" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G58" s="48">
         <v>9</v>
@@ -39739,40 +41115,40 @@
     </row>
     <row r="59" spans="1:14">
       <c r="A59" s="45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B59" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C59" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D59" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E59" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F59" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G59" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H59" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I59" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J59" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K59" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L59" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M59" s="46">
         <v>5.9</v>
@@ -39783,40 +41159,40 @@
     </row>
     <row r="60" spans="1:14">
       <c r="A60" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B60" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C60" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D60" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E60" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F60" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G60" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H60" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I60" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J60" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K60" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L60" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="M60" s="48">
         <v>5.7</v>
@@ -39827,22 +41203,22 @@
     </row>
     <row r="61" spans="1:14">
       <c r="A61" s="45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B61" s="46">
         <v>8.8000000000000007</v>
       </c>
       <c r="C61" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D61" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E61" s="46">
         <v>8.6</v>
       </c>
       <c r="F61" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G61" s="46">
         <v>8.6</v>
@@ -39871,34 +41247,34 @@
     </row>
     <row r="62" spans="1:14">
       <c r="A62" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B62" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C62" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D62" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E62" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F62" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G62" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H62" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I62" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J62" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K62" s="48">
         <v>5.5</v>
@@ -39915,34 +41291,34 @@
     </row>
     <row r="63" spans="1:14">
       <c r="A63" s="45" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B63" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C63" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D63" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E63" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F63" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G63" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H63" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I63" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J63" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K63" s="46">
         <v>6.2</v>
@@ -39959,34 +41335,34 @@
     </row>
     <row r="64" spans="1:14">
       <c r="A64" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B64" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C64" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D64" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E64" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F64" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G64" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H64" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I64" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J64" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K64" s="48">
         <v>6.7</v>
@@ -39995,30 +41371,30 @@
         <v>6.4</v>
       </c>
       <c r="M64" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="N64" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:14">
       <c r="A65" s="45" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B65" s="46">
         <v>9.1999999999999993</v>
       </c>
       <c r="C65" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D65" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E65" s="46">
         <v>9</v>
       </c>
       <c r="F65" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G65" s="46">
         <v>8.6999999999999993</v>
@@ -40047,22 +41423,22 @@
     </row>
     <row r="66" spans="1:14">
       <c r="A66" s="47" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B66" s="48">
         <v>8.1999999999999993</v>
       </c>
       <c r="C66" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D66" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E66" s="48">
         <v>7.2</v>
       </c>
       <c r="F66" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G66" s="48">
         <v>6.6</v>
@@ -40091,22 +41467,22 @@
     </row>
     <row r="67" spans="1:14">
       <c r="A67" s="45" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B67" s="46">
         <v>8.8000000000000007</v>
       </c>
       <c r="C67" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D67" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E67" s="46">
         <v>8.3000000000000007</v>
       </c>
       <c r="F67" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G67" s="46">
         <v>8.1999999999999993</v>
@@ -40135,22 +41511,22 @@
     </row>
     <row r="68" spans="1:14">
       <c r="A68" s="47" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B68" s="48">
         <v>7.4</v>
       </c>
       <c r="C68" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D68" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E68" s="48">
         <v>7</v>
       </c>
       <c r="F68" s="48" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G68" s="48">
         <v>6.7</v>
@@ -40179,22 +41555,22 @@
     </row>
     <row r="69" spans="1:14">
       <c r="A69" s="45" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B69" s="46">
         <v>11.1</v>
       </c>
       <c r="C69" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D69" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E69" s="46">
         <v>10.199999999999999</v>
       </c>
       <c r="F69" s="46" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G69" s="46">
         <v>9.5</v>
@@ -40230,69 +41606,6 @@
     <hyperlink ref="I8" r:id="rId1" xr:uid="{90B25065-98AF-40EC-9EC5-C549B8D2D7C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:R10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="16" max="16" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:18">
-      <c r="P10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>3</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -40462,12 +41775,73 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+  <dimension ref="A1:R10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="16" max="16" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:18">
+      <c r="P10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>3</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780079A6-729A-4BF6-A60D-8613DB4EC2FC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J75" sqref="J75"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
@@ -40476,7 +41850,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -40550,13 +41924,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -40669,12 +42041,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -40705,7 +42077,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B6" s="3"/>
     </row>
@@ -40713,7 +42085,7 @@
       <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="56">
         <v>120476</v>
       </c>
     </row>
@@ -40721,44 +42093,95 @@
       <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="56">
         <v>137452</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="56"/>
+    </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>143</v>
-      </c>
+      <c r="A10" s="68" t="s">
+        <v>360</v>
+      </c>
+      <c r="B10" s="69"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4">
-        <v>3412000000</v>
+      <c r="A11" s="70" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" s="70">
+        <v>34.42</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="2" t="s">
-        <v>320</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>321</v>
-      </c>
-      <c r="B14">
-        <v>264.17200000000003</v>
+      <c r="A14" s="4">
+        <v>3412000000</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B17">
+        <v>264.17200000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20">
         <v>0.26417200000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>349</v>
+      </c>
+      <c r="B23" s="71">
+        <v>947817.12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>359</v>
+      </c>
+      <c r="B24">
+        <v>947.82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>358</v>
+      </c>
+      <c r="B26">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
@@ -40766,12 +42189,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9823B3-B9A8-45BA-AB9B-6560A8BB5A72}">
   <dimension ref="A1:AM13"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection sqref="A1:AM13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -40781,13 +42204,13 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>313</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>314</v>
       </c>
       <c r="D1">
         <v>2015</v>
@@ -40900,10 +42323,10 @@
     </row>
     <row r="2" spans="1:39">
       <c r="A2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B2" t="s">
         <v>315</v>
-      </c>
-      <c r="B2" t="s">
-        <v>316</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -41055,10 +42478,10 @@
     </row>
     <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -41213,7 +42636,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
@@ -41368,7 +42791,7 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -41523,154 +42946,154 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4">
         <f>'BNVFE-aircraft-psgr'!B5</f>
-        <v>5.3572522601763833E-4</v>
+        <v>6.0311920727660728E-4</v>
       </c>
       <c r="E6" s="4">
         <f>'BNVFE-aircraft-psgr'!C5</f>
-        <v>5.3586620634027448E-4</v>
+        <v>6.0327792285746952E-4</v>
       </c>
       <c r="F6" s="4">
         <f>'BNVFE-aircraft-psgr'!D5</f>
-        <v>5.3600722376299557E-4</v>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="G6" s="4">
         <f>'BNVFE-aircraft-psgr'!E5</f>
-        <v>5.3614827829556472E-4</v>
+        <v>6.0359547933195961E-4</v>
       </c>
       <c r="H6" s="4">
         <f>'BNVFE-aircraft-psgr'!F5</f>
-        <v>5.3628936994774769E-4</v>
+        <v>6.0375432024757322E-4</v>
       </c>
       <c r="I6" s="4">
         <f>'BNVFE-aircraft-psgr'!G5</f>
-        <v>5.364304987293128E-4</v>
+        <v>6.0391320296342783E-4</v>
       </c>
       <c r="J6" s="4">
         <f>'BNVFE-aircraft-psgr'!H5</f>
-        <v>5.3657166465003099E-4</v>
+        <v>6.0407212749052344E-4</v>
       </c>
       <c r="K6" s="4">
         <f>'BNVFE-aircraft-psgr'!I5</f>
-        <v>5.3671286771967569E-4</v>
+        <v>6.0423109383986296E-4</v>
       </c>
       <c r="L6" s="4">
         <f>'BNVFE-aircraft-psgr'!J5</f>
-        <v>5.3685410794802294E-4</v>
+        <v>6.0439010202245234E-4</v>
       </c>
       <c r="M6" s="4">
         <f>'BNVFE-aircraft-psgr'!K5</f>
-        <v>5.3699538534485126E-4</v>
+        <v>6.0454915204930025E-4</v>
       </c>
       <c r="N6" s="4">
         <f>'BNVFE-aircraft-psgr'!L5</f>
-        <v>5.3713669991994201E-4</v>
+        <v>6.0470824393141838E-4</v>
       </c>
       <c r="O6" s="4">
         <f>'BNVFE-aircraft-psgr'!M5</f>
-        <v>5.372780516830788E-4</v>
+        <v>6.0486737767982137E-4</v>
       </c>
       <c r="P6" s="4">
         <f>'BNVFE-aircraft-psgr'!N5</f>
-        <v>5.3741944064404797E-4</v>
+        <v>6.0502655330552655E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>'BNVFE-aircraft-psgr'!O5</f>
-        <v>5.3756086681263845E-4</v>
+        <v>6.0518577081955429E-4</v>
       </c>
       <c r="R6" s="4">
         <f>'BNVFE-aircraft-psgr'!P5</f>
-        <v>5.3770233019864169E-4</v>
+        <v>6.0534503023292779E-4</v>
       </c>
       <c r="S6" s="4">
         <f>'BNVFE-aircraft-psgr'!Q5</f>
-        <v>5.378438308118518E-4</v>
+        <v>6.0550433155667327E-4</v>
       </c>
       <c r="T6" s="4">
         <f>'BNVFE-aircraft-psgr'!R5</f>
-        <v>5.3798536866206544E-4</v>
+        <v>6.0566367480181967E-4</v>
       </c>
       <c r="U6" s="4">
         <f>'BNVFE-aircraft-psgr'!S5</f>
-        <v>5.3812694375908173E-4</v>
+        <v>6.0582305997939907E-4</v>
       </c>
       <c r="V6" s="4">
         <f>'BNVFE-aircraft-psgr'!T5</f>
-        <v>5.382685561127025E-4</v>
+        <v>6.0598248710044627E-4</v>
       </c>
       <c r="W6" s="4">
         <f>'BNVFE-aircraft-psgr'!U5</f>
-        <v>5.3841020573273208E-4</v>
+        <v>6.0614195617599898E-4</v>
       </c>
       <c r="X6" s="4">
         <f>'BNVFE-aircraft-psgr'!V5</f>
-        <v>5.3855189262897753E-4</v>
+        <v>6.0630146721709786E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>'BNVFE-aircraft-psgr'!W5</f>
-        <v>5.3869361681124826E-4</v>
+        <v>6.0646102023478648E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>'BNVFE-aircraft-psgr'!X5</f>
-        <v>5.3883537828935642E-4</v>
+        <v>6.0662061524011134E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>'BNVFE-aircraft-psgr'!Y5</f>
-        <v>5.3897717707311675E-4</v>
+        <v>6.0678025224412187E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>'BNVFE-aircraft-psgr'!Z5</f>
-        <v>5.3911901317234647E-4</v>
+        <v>6.0693993125787021E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>'BNVFE-aircraft-psgr'!AA5</f>
-        <v>5.3926088659686543E-4</v>
+        <v>6.0709965229241165E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>'BNVFE-aircraft-psgr'!AB5</f>
-        <v>5.3940279735649617E-4</v>
+        <v>6.0725941535880428E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>'BNVFE-aircraft-psgr'!AC5</f>
-        <v>5.3954474546106363E-4</v>
+        <v>6.0741922046810915E-4</v>
       </c>
       <c r="AF6" s="4">
         <f>'BNVFE-aircraft-psgr'!AD5</f>
-        <v>5.3968673092039544E-4</v>
+        <v>6.075790676313902E-4</v>
       </c>
       <c r="AG6" s="4">
         <f>'BNVFE-aircraft-psgr'!AE5</f>
-        <v>5.3982875374432185E-4</v>
+        <v>6.0773895685971421E-4</v>
       </c>
       <c r="AH6" s="4">
         <f>'BNVFE-aircraft-psgr'!AF5</f>
-        <v>5.399708139426756E-4</v>
+        <v>6.0789888816415089E-4</v>
       </c>
       <c r="AI6" s="4">
         <f>'BNVFE-aircraft-psgr'!AG5</f>
-        <v>5.4011291152529202E-4</v>
+        <v>6.0805886155577298E-4</v>
       </c>
       <c r="AJ6" s="4">
         <f>'BNVFE-aircraft-psgr'!AH5</f>
-        <v>5.4025504650200918E-4</v>
+        <v>6.0821887704565604E-4</v>
       </c>
       <c r="AK6" s="4">
         <f>'BNVFE-aircraft-psgr'!AI5</f>
-        <v>5.4039721888266749E-4</v>
+        <v>6.0837893464487855E-4</v>
       </c>
       <c r="AL6" s="4">
         <f>'BNVFE-aircraft-psgr'!AJ5</f>
-        <v>5.4053942867711023E-4</v>
+        <v>6.0853903436452193E-4</v>
       </c>
       <c r="AM6" s="4">
         <f>'BNVFE-aircraft-psgr'!AK5</f>
-        <v>5.4068167589518313E-4</v>
+        <v>6.086991762156704E-4</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -41678,162 +43101,162 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="4">
         <f>'BNVFE-aircraft-frgt'!B5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="E7" s="4">
         <f>'BNVFE-aircraft-frgt'!C5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="F7" s="4">
         <f>'BNVFE-aircraft-frgt'!D5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="G7" s="4">
         <f>'BNVFE-aircraft-frgt'!E5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="H7" s="4">
         <f>'BNVFE-aircraft-frgt'!F5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="I7" s="4">
         <f>'BNVFE-aircraft-frgt'!G5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="J7" s="4">
         <f>'BNVFE-aircraft-frgt'!H5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="K7" s="4">
         <f>'BNVFE-aircraft-frgt'!I5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="L7" s="4">
         <f>'BNVFE-aircraft-frgt'!J5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="M7" s="4">
         <f>'BNVFE-aircraft-frgt'!K5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="N7" s="4">
         <f>'BNVFE-aircraft-frgt'!L5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="O7" s="4">
         <f>'BNVFE-aircraft-frgt'!M5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="P7" s="4">
         <f>'BNVFE-aircraft-frgt'!N5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Q7" s="4">
         <f>'BNVFE-aircraft-frgt'!O5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="R7" s="4">
         <f>'BNVFE-aircraft-frgt'!P5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="S7" s="4">
         <f>'BNVFE-aircraft-frgt'!Q5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="T7" s="4">
         <f>'BNVFE-aircraft-frgt'!R5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="U7" s="4">
         <f>'BNVFE-aircraft-frgt'!S5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="V7" s="4">
         <f>'BNVFE-aircraft-frgt'!T5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="W7" s="4">
         <f>'BNVFE-aircraft-frgt'!U5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="X7" s="4">
         <f>'BNVFE-aircraft-frgt'!V5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Y7" s="4">
         <f>'BNVFE-aircraft-frgt'!W5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Z7" s="4">
         <f>'BNVFE-aircraft-frgt'!X5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AA7" s="4">
         <f>'BNVFE-aircraft-frgt'!Y5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AB7" s="4">
         <f>'BNVFE-aircraft-frgt'!Z5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AC7" s="4">
         <f>'BNVFE-aircraft-frgt'!AA5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AD7" s="4">
         <f>'BNVFE-aircraft-frgt'!AB5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AE7" s="4">
         <f>'BNVFE-aircraft-frgt'!AC5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AF7" s="4">
         <f>'BNVFE-aircraft-frgt'!AD5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AG7" s="4">
         <f>'BNVFE-aircraft-frgt'!AE5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AH7" s="4">
         <f>'BNVFE-aircraft-frgt'!AF5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AI7" s="4">
         <f>'BNVFE-aircraft-frgt'!AG5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AJ7" s="4">
         <f>'BNVFE-aircraft-frgt'!AH5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AK7" s="4">
         <f>'BNVFE-aircraft-frgt'!AI5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AL7" s="4">
         <f>'BNVFE-aircraft-frgt'!AJ5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AM7" s="4">
         <f>'BNVFE-aircraft-frgt'!AK5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
     </row>
     <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -41985,10 +43408,10 @@
     </row>
     <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
@@ -42143,7 +43566,7 @@
         <v>127</v>
       </c>
       <c r="B10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
@@ -42298,7 +43721,7 @@
         <v>127</v>
       </c>
       <c r="B11" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -42450,10 +43873,10 @@
     </row>
     <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -42605,10 +44028,10 @@
     </row>
     <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -42763,16 +44186,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -43937,10 +45358,10 @@
       </c>
     </row>
     <row r="10" spans="1:37">
-      <c r="B10" s="65"/>
+      <c r="B10" s="61"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="B11" s="65"/>
+      <c r="B11" s="61"/>
       <c r="D11" s="10"/>
     </row>
     <row r="12" spans="1:37">
@@ -43961,7 +45382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -45138,7 +46559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -46315,16 +47736,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -47494,7 +48913,130 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="26.1328125" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="21">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="13">
+        <v>223900.7142857142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B12" s="13">
+        <f>'figure 107'!J8</f>
+        <v>1892444.1873679156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B13" s="13">
+        <f>B12*units_convertor!B17</f>
+        <v>499930765.86535704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14">
+        <f>B13*units_convertor!B8</f>
+        <v>68716483629725.055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="29">
+        <f>(B11*10^6*units_convertor!A2)/'Ships-freight'!B14</f>
+        <v>2.0246293667484216E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>214</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -47628,147 +49170,147 @@
       </c>
       <c r="B2" s="9">
         <f>B$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7215394280430541E-3</v>
+        <v>1.938108277735956E-3</v>
       </c>
       <c r="C2" s="9">
         <f>C$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7219924647346443E-3</v>
+        <v>1.9386183062300969E-3</v>
       </c>
       <c r="D2" s="9">
         <f>D$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7224456206464164E-3</v>
+        <v>1.9391284689422624E-3</v>
       </c>
       <c r="E2" s="9">
         <f>E$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7228988958097444E-3</v>
+        <v>1.9396387659077732E-3</v>
       </c>
       <c r="F2" s="9">
         <f>F$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7233522902560098E-3</v>
+        <v>1.9401491971619592E-3</v>
       </c>
       <c r="G2" s="9">
         <f>G$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7238058040166032E-3</v>
+        <v>1.9406597627401598E-3</v>
       </c>
       <c r="H2" s="9">
         <f>H$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.724259437122923E-3</v>
+        <v>1.9411704626777228E-3</v>
       </c>
       <c r="I2" s="9">
         <f>I$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7247131896063763E-3</v>
+        <v>1.9416812970100062E-3</v>
       </c>
       <c r="J2" s="9">
         <f>J$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7251670614983779E-3</v>
+        <v>1.9421922657723771E-3</v>
       </c>
       <c r="K2" s="9">
         <f>K$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7256210528303509E-3</v>
+        <v>1.9427033690002115E-3</v>
       </c>
       <c r="L2" s="9">
         <f>L$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7260751636337273E-3</v>
+        <v>1.9432146067288954E-3</v>
       </c>
       <c r="M2" s="9">
         <f>M$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7265293939399465E-3</v>
+        <v>1.943725978993824E-3</v>
       </c>
       <c r="N2" s="9">
         <f>N$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7269837437804568E-3</v>
+        <v>1.9442374858304012E-3</v>
       </c>
       <c r="O2" s="9">
         <f>O$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7274382131867148E-3</v>
+        <v>1.9447491272740409E-3</v>
       </c>
       <c r="P2" s="9">
         <f>P$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7278928021901847E-3</v>
+        <v>1.9452609033601652E-3</v>
       </c>
       <c r="Q2" s="9">
         <f>Q$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7283475108223398E-3</v>
+        <v>1.9457728141242074E-3</v>
       </c>
       <c r="R2" s="9">
         <f>R$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7288023391146615E-3</v>
+        <v>1.9462848596016082E-3</v>
       </c>
       <c r="S2" s="9">
         <f>S$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7292572870986388E-3</v>
+        <v>1.9467970398278191E-3</v>
       </c>
       <c r="T2" s="9">
         <f>T$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7297123548057698E-3</v>
+        <v>1.9473093548383E-3</v>
       </c>
       <c r="U2" s="9">
         <f>U$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7301675422675606E-3</v>
+        <v>1.9478218046685206E-3</v>
       </c>
       <c r="V2" s="9">
         <f>V$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7306228495155257E-3</v>
+        <v>1.9483343893539594E-3</v>
       </c>
       <c r="W2" s="9">
         <f>W$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7310782765811875E-3</v>
+        <v>1.9488471089301048E-3</v>
       </c>
       <c r="X2" s="9">
         <f>X$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7315338234960773E-3</v>
+        <v>1.9493599634324546E-3</v>
       </c>
       <c r="Y2" s="9">
         <f>Y$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7319894902917338E-3</v>
+        <v>1.9498729528965157E-3</v>
       </c>
       <c r="Z2" s="9">
         <f>Z$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7324452769997053E-3</v>
+        <v>1.9503860773578039E-3</v>
       </c>
       <c r="AA2" s="9">
         <f>AA$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7329011836515471E-3</v>
+        <v>1.9508993368518451E-3</v>
       </c>
       <c r="AB2" s="9">
         <f>AB$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7333572102788237E-3</v>
+        <v>1.9514127314141743E-3</v>
       </c>
       <c r="AC2" s="9">
         <f>AC$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7338133569131074E-3</v>
+        <v>1.9519262610803356E-3</v>
       </c>
       <c r="AD2" s="9">
         <f>AD$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7342696235859792E-3</v>
+        <v>1.952439925885883E-3</v>
       </c>
       <c r="AE2" s="9">
         <f>AE$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7347260103290282E-3</v>
+        <v>1.952953725866379E-3</v>
       </c>
       <c r="AF2" s="9">
         <f>AF$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7351825171738515E-3</v>
+        <v>1.9534676610573963E-3</v>
       </c>
       <c r="AG2" s="9">
         <f>AG$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7356391441520549E-3</v>
+        <v>1.9539817314945165E-3</v>
       </c>
       <c r="AH2" s="9">
         <f>AH$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7360958912952527E-3</v>
+        <v>1.9544959372133305E-3</v>
       </c>
       <c r="AI2" s="9">
         <f>AI$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.736552758635067E-3</v>
+        <v>1.9550102782494392E-3</v>
       </c>
       <c r="AJ2" s="9">
         <f>AJ$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7370097462031287E-3</v>
+        <v>1.9555247546384521E-3</v>
       </c>
       <c r="AK2" s="9">
         <f>AK$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.7374668540310768E-3</v>
+        <v>1.9560393664159884E-3</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -48002,148 +49544,148 @@
         <v>6</v>
       </c>
       <c r="B5" s="18">
-        <f>'Air-psgr'!B14</f>
-        <v>5.3572522601763833E-4</v>
+        <f>'Air-psgr'!B15</f>
+        <v>6.0311920727660728E-4</v>
       </c>
       <c r="C5" s="4">
-        <f>B5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3586620634027448E-4</v>
+        <f>B5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0327792285746952E-4</v>
       </c>
       <c r="D5" s="4">
-        <f>C5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3600722376299557E-4</v>
+        <f>C5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0343668020558983E-4</v>
       </c>
       <c r="E5" s="4">
-        <f>D5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3614827829556472E-4</v>
+        <f>D5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0359547933195961E-4</v>
       </c>
       <c r="F5" s="4">
-        <f>E5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3628936994774769E-4</v>
+        <f>E5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0375432024757322E-4</v>
       </c>
       <c r="G5" s="4">
-        <f>F5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.364304987293128E-4</v>
+        <f>F5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0391320296342783E-4</v>
       </c>
       <c r="H5" s="4">
-        <f>G5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3657166465003099E-4</v>
+        <f>G5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0407212749052344E-4</v>
       </c>
       <c r="I5" s="4">
-        <f>H5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3671286771967569E-4</v>
+        <f>H5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0423109383986296E-4</v>
       </c>
       <c r="J5" s="4">
-        <f>I5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3685410794802294E-4</v>
+        <f>I5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0439010202245234E-4</v>
       </c>
       <c r="K5" s="4">
-        <f>J5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3699538534485126E-4</v>
+        <f>J5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0454915204930025E-4</v>
       </c>
       <c r="L5" s="4">
-        <f>K5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3713669991994201E-4</v>
+        <f>K5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0470824393141838E-4</v>
       </c>
       <c r="M5" s="4">
-        <f>L5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.372780516830788E-4</v>
+        <f>L5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0486737767982137E-4</v>
       </c>
       <c r="N5" s="4">
-        <f>M5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3741944064404797E-4</v>
+        <f>M5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0502655330552655E-4</v>
       </c>
       <c r="O5" s="4">
-        <f>N5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3756086681263845E-4</v>
+        <f>N5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0518577081955429E-4</v>
       </c>
       <c r="P5" s="4">
-        <f>O5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3770233019864169E-4</v>
+        <f>O5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0534503023292779E-4</v>
       </c>
       <c r="Q5" s="4">
-        <f>P5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.378438308118518E-4</v>
+        <f>P5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0550433155667327E-4</v>
       </c>
       <c r="R5" s="4">
-        <f>Q5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3798536866206544E-4</v>
+        <f>Q5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0566367480181967E-4</v>
       </c>
       <c r="S5" s="4">
-        <f>R5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3812694375908173E-4</v>
+        <f>R5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0582305997939907E-4</v>
       </c>
       <c r="T5" s="4">
-        <f>S5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.382685561127025E-4</v>
+        <f>S5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0598248710044627E-4</v>
       </c>
       <c r="U5" s="4">
-        <f>T5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3841020573273208E-4</v>
+        <f>T5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0614195617599898E-4</v>
       </c>
       <c r="V5" s="4">
-        <f>U5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3855189262897753E-4</v>
+        <f>U5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0630146721709786E-4</v>
       </c>
       <c r="W5" s="4">
-        <f>V5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3869361681124826E-4</v>
+        <f>V5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0646102023478648E-4</v>
       </c>
       <c r="X5" s="4">
-        <f>W5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3883537828935642E-4</v>
+        <f>W5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0662061524011134E-4</v>
       </c>
       <c r="Y5" s="4">
-        <f>X5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3897717707311675E-4</v>
+        <f>X5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0678025224412187E-4</v>
       </c>
       <c r="Z5" s="4">
-        <f>Y5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3911901317234647E-4</v>
+        <f>Y5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0693993125787021E-4</v>
       </c>
       <c r="AA5" s="4">
-        <f>Z5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3926088659686543E-4</v>
+        <f>Z5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0709965229241165E-4</v>
       </c>
       <c r="AB5" s="4">
-        <f>AA5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3940279735649617E-4</v>
+        <f>AA5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0725941535880428E-4</v>
       </c>
       <c r="AC5" s="4">
-        <f>AB5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3954474546106363E-4</v>
+        <f>AB5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0741922046810915E-4</v>
       </c>
       <c r="AD5" s="4">
-        <f>AC5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3968673092039544E-4</v>
+        <f>AC5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.075790676313902E-4</v>
       </c>
       <c r="AE5" s="4">
-        <f>AD5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.3982875374432185E-4</v>
+        <f>AD5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0773895685971421E-4</v>
       </c>
       <c r="AF5" s="4">
-        <f>AE5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.399708139426756E-4</v>
+        <f>AE5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0789888816415089E-4</v>
       </c>
       <c r="AG5" s="4">
-        <f>AF5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.4011291152529202E-4</v>
+        <f>AF5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0805886155577298E-4</v>
       </c>
       <c r="AH5" s="4">
-        <f>AG5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.4025504650200918E-4</v>
+        <f>AG5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0821887704565604E-4</v>
       </c>
       <c r="AI5" s="4">
-        <f>AH5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.4039721888266749E-4</v>
+        <f>AH5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0837893464487855E-4</v>
       </c>
       <c r="AJ5" s="4">
-        <f>AI5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.4053942867711023E-4</v>
+        <f>AI5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.0853903436452193E-4</v>
       </c>
       <c r="AK5" s="4">
-        <f>AJ5*(1+'Air-psgr'!$B$27)</f>
-        <v>5.4068167589518313E-4</v>
+        <f>AJ5*(1+'Air-psgr'!$B$28)</f>
+        <v>6.086991762156704E-4</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -48378,147 +49920,147 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*'Calculations Etc'!$B$14</f>
-        <v>1.3393130650440959E-3</v>
+        <v>1.5077980181915183E-3</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*'Calculations Etc'!$B$14</f>
-        <v>1.3396655158506863E-3</v>
+        <v>1.5081948071436738E-3</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*'Calculations Etc'!$B$14</f>
-        <v>1.340018059407489E-3</v>
+        <v>1.5085917005139746E-3</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*'Calculations Etc'!$B$14</f>
-        <v>1.3403706957389118E-3</v>
+        <v>1.5089886983298991E-3</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*'Calculations Etc'!$B$14</f>
-        <v>1.3407234248693691E-3</v>
+        <v>1.5093858006189329E-3</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*'Calculations Etc'!$B$14</f>
-        <v>1.3410762468232819E-3</v>
+        <v>1.5097830074085696E-3</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*'Calculations Etc'!$B$14</f>
-        <v>1.3414291616250774E-3</v>
+        <v>1.5101803187263087E-3</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*'Calculations Etc'!$B$14</f>
-        <v>1.3417821692991892E-3</v>
+        <v>1.5105777345996575E-3</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*'Calculations Etc'!$B$14</f>
-        <v>1.3421352698700572E-3</v>
+        <v>1.5109752550561309E-3</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*'Calculations Etc'!$B$14</f>
-        <v>1.3424884633621282E-3</v>
+        <v>1.5113728801232507E-3</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*'Calculations Etc'!$B$14</f>
-        <v>1.342841749799855E-3</v>
+        <v>1.5117706098285459E-3</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*'Calculations Etc'!$B$14</f>
-        <v>1.343195129207697E-3</v>
+        <v>1.5121684441995534E-3</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*'Calculations Etc'!$B$14</f>
-        <v>1.34354860161012E-3</v>
+        <v>1.5125663832638164E-3</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*'Calculations Etc'!$B$14</f>
-        <v>1.3439021670315961E-3</v>
+        <v>1.5129644270488857E-3</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*'Calculations Etc'!$B$14</f>
-        <v>1.3442558254966042E-3</v>
+        <v>1.5133625755823195E-3</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*'Calculations Etc'!$B$14</f>
-        <v>1.3446095770296295E-3</v>
+        <v>1.5137608288916832E-3</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*'Calculations Etc'!$B$14</f>
-        <v>1.3449634216551637E-3</v>
+        <v>1.5141591870045492E-3</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*'Calculations Etc'!$B$14</f>
-        <v>1.3453173593977043E-3</v>
+        <v>1.5145576499484977E-3</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*'Calculations Etc'!$B$14</f>
-        <v>1.3456713902817562E-3</v>
+        <v>1.5149562177511158E-3</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*'Calculations Etc'!$B$14</f>
-        <v>1.3460255143318302E-3</v>
+        <v>1.5153548904399974E-3</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*'Calculations Etc'!$B$14</f>
-        <v>1.3463797315724439E-3</v>
+        <v>1.5157536680427447E-3</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*'Calculations Etc'!$B$14</f>
-        <v>1.3467340420281206E-3</v>
+        <v>1.5161525505869662E-3</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*'Calculations Etc'!$B$14</f>
-        <v>1.3470884457233911E-3</v>
+        <v>1.5165515381002784E-3</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*'Calculations Etc'!$B$14</f>
-        <v>1.347442942682792E-3</v>
+        <v>1.5169506306103046E-3</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*'Calculations Etc'!$B$14</f>
-        <v>1.3477975329308661E-3</v>
+        <v>1.5173498281446755E-3</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*'Calculations Etc'!$B$14</f>
-        <v>1.3481522164921636E-3</v>
+        <v>1.5177491307310292E-3</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*'Calculations Etc'!$B$14</f>
-        <v>1.3485069933912405E-3</v>
+        <v>1.5181485383970108E-3</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*'Calculations Etc'!$B$14</f>
-        <v>1.3488618636526592E-3</v>
+        <v>1.5185480511702729E-3</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*'Calculations Etc'!$B$14</f>
-        <v>1.3492168273009887E-3</v>
+        <v>1.5189476690784754E-3</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*'Calculations Etc'!$B$14</f>
-        <v>1.3495718843608046E-3</v>
+        <v>1.5193473921492856E-3</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*'Calculations Etc'!$B$14</f>
-        <v>1.349927034856689E-3</v>
+        <v>1.5197472204103771E-3</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$5*'Calculations Etc'!$B$14</f>
-        <v>1.3502822788132301E-3</v>
+        <v>1.5201471538894324E-3</v>
       </c>
       <c r="AH8" s="4">
         <f>AH$5*'Calculations Etc'!$B$14</f>
-        <v>1.3506376162550229E-3</v>
+        <v>1.52054719261414E-3</v>
       </c>
       <c r="AI8" s="4">
         <f>AI$5*'Calculations Etc'!$B$14</f>
-        <v>1.3509930472066687E-3</v>
+        <v>1.5209473366121964E-3</v>
       </c>
       <c r="AJ8" s="4">
         <f>AJ$5*'Calculations Etc'!$B$14</f>
-        <v>1.3513485716927756E-3</v>
+        <v>1.5213475859113049E-3</v>
       </c>
       <c r="AK8" s="4">
         <f>AK$5*'Calculations Etc'!$B$14</f>
-        <v>1.3517041897379578E-3</v>
+        <v>1.521747940539176E-3</v>
       </c>
     </row>
   </sheetData>
@@ -48526,132 +50068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="26.1328125" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="21">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>174</v>
-      </c>
-      <c r="B11" s="13">
-        <v>223900.7142857142</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>327</v>
-      </c>
-      <c r="B12" s="13">
-        <f>'figure 107'!J8</f>
-        <v>1892444.1873679156</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>328</v>
-      </c>
-      <c r="B13" s="13">
-        <f>B12*units_convertor!B14</f>
-        <v>499930765.86535704</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14">
-        <f>B13*units_convertor!B8</f>
-        <v>68716483629725.055</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="29">
-        <f>(B11*10^6*units_convertor!A2)/'Ships-freight'!B14</f>
-        <v>2.0246293667484216E-3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>215</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -48785,147 +50202,147 @@
       </c>
       <c r="B2" s="9">
         <f>B$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="C2" s="9">
         <f>C$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="D2" s="9">
         <f>D$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="E2" s="9">
         <f>E$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="F2" s="9">
         <f>F$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="G2" s="9">
         <f>G$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="H2" s="9">
         <f>H$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="I2" s="9">
         <f>I$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="J2" s="9">
         <f>J$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="K2" s="9">
         <f>K$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="L2" s="9">
         <f>L$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="M2" s="9">
         <f>M$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="N2" s="9">
         <f>N$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="O2" s="9">
         <f>O$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="P2" s="9">
         <f>P$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="Q2" s="9">
         <f>Q$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="R2" s="9">
         <f>R$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="S2" s="9">
         <f>S$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="T2" s="9">
         <f>T$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="U2" s="9">
         <f>U$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="V2" s="9">
         <f>V$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="W2" s="9">
         <f>W$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="X2" s="9">
         <f>X$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="Y2" s="9">
         <f>Y$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="Z2" s="9">
         <f>Z$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AA2" s="9">
         <f>AA$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AB2" s="9">
         <f>AB$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AC2" s="9">
         <f>AC$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AD2" s="9">
         <f>AD$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AE2" s="9">
         <f>AE$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AF2" s="9">
         <f>AF$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AG2" s="9">
         <f>AG$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AH2" s="9">
         <f>AH$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AI2" s="9">
         <f>AI$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AJ2" s="9">
         <f>AJ$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
       <c r="AK2" s="9">
         <f>AK$5/(1-'Calculations Etc'!$B$4)</f>
-        <v>1.3507491981355607E-3</v>
+        <v>1.1941909138912607E-6</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -49160,147 +50577,147 @@
       </c>
       <c r="B5" s="18">
         <f>'Air-freight'!B15</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="C5" s="4">
         <f>$B$5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" ref="D5:AK5" si="0">$B$5</f>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="F5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="H5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="J5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="K5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="L5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="M5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="N5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="O5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="R5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="T5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="U5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="V5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="W5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="X5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Y5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="Z5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AA5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AB5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AC5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AD5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AE5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AF5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AG5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AH5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AI5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AJ5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
       <c r="AK5" s="4">
         <f t="shared" si="0"/>
-        <v>4.2033914976138416E-4</v>
+        <v>3.7161983445238052E-7</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -49535,147 +50952,147 @@
       </c>
       <c r="B8" s="4">
         <f>B$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="C8" s="4">
         <f>C$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="D8" s="4">
         <f>D$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="E8" s="4">
         <f>E$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="F8" s="4">
         <f>F$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="G8" s="4">
         <f>G$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="H8" s="4">
         <f>H$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="I8" s="4">
         <f>I$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="J8" s="4">
         <f>J$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="K8" s="4">
         <f>K$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="L8" s="4">
         <f>L$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="M8" s="4">
         <f>M$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="N8" s="4">
         <f>N$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="O8" s="4">
         <f>O$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="P8" s="4">
         <f>P$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="Q8" s="4">
         <f>Q$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="R8" s="4">
         <f>R$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="S8" s="4">
         <f>S$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="T8" s="4">
         <f>T$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="U8" s="4">
         <f>U$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="V8" s="4">
         <f>V$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="W8" s="4">
         <f>W$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="X8" s="4">
         <f>X$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="Y8" s="4">
         <f>Y$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="Z8" s="4">
         <f>Z$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AA8" s="4">
         <f>AA$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AB8" s="4">
         <f>AB$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AC8" s="4">
         <f>AC$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AD8" s="4">
         <f>AD$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AE8" s="4">
         <f>AE$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AF8" s="4">
         <f>AF$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AG8" s="4">
         <f>AG$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AH8" s="4">
         <f>AH$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AI8" s="4">
         <f>AI$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AJ8" s="4">
         <f>AJ$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
       <c r="AK8" s="4">
         <f>AK$5*'Calculations Etc'!$B$14</f>
-        <v>1.0508478744034604E-3</v>
+        <v>9.290495861309513E-7</v>
       </c>
     </row>
   </sheetData>
@@ -49683,7 +51100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -50646,7 +52063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -51678,7 +53095,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -52641,7 +54058,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -53677,7 +55094,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -54864,7 +56281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
@@ -55818,7 +57235,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -55839,7 +57256,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B10" s="21">
         <v>2015</v>
@@ -55855,7 +57272,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B12" s="13">
         <f>'figure 107'!H8</f>
@@ -55864,10 +57281,10 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B13" s="13">
-        <f>B12*units_convertor!B14</f>
+        <f>B12*units_convertor!B17</f>
         <v>38380393.90476837</v>
       </c>
     </row>
@@ -55896,7 +57313,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>132</v>
@@ -55904,7 +57321,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -55913,304 +57330,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:B20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="26.1328125" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="21">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>201</v>
-      </c>
-      <c r="B11" s="13">
-        <f>10.5598901591149*10^9</f>
-        <v>10559890159.114901</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.5">
-      <c r="A12" s="57" t="s">
-        <v>322</v>
-      </c>
-      <c r="B12" s="13">
-        <f>'figure 107'!F8</f>
-        <v>429905.19403268123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>326</v>
-      </c>
-      <c r="B13" s="13">
-        <f>B12*10^3*units_convertor!B17</f>
-        <v>113568914.91800147</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>155</v>
-      </c>
-      <c r="B14">
-        <f>B13*units_convertor!B8</f>
-        <v>15610274493309.139</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="4">
-        <f>(B11*units_convertor!A2)/'Air-freight'!B14</f>
-        <v>4.2033914976138416E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>205</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>203</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:C27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="26.1328125" customWidth="1"/>
-    <col min="2" max="2" width="20" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="21">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B11" s="56">
-        <f>239.344179837816*10^9</f>
-        <v>239344179837.81601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>323</v>
-      </c>
-      <c r="B12" s="55">
-        <f>'figure 107'!D8</f>
-        <v>7645.2890068227107</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13">
-        <f>B12*10^3*units_convertor!B14*units_convertor!B8</f>
-        <v>277607857810875.28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>146</v>
-      </c>
-      <c r="B14" s="29">
-        <f>(B11*units_convertor!A2)/'Air-psgr'!B13</f>
-        <v>5.3572522601763833E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="B23" t="s">
-        <v>307</v>
-      </c>
-      <c r="C23" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="B24">
-        <v>2.5999999999999999E-2</v>
-      </c>
-      <c r="C24">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="B25">
-        <v>1.6E-2</v>
-      </c>
-      <c r="C25">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="s">
-        <v>309</v>
-      </c>
-      <c r="B26" s="52">
-        <f>(B25-B24)</f>
-        <v>-9.9999999999999985E-3</v>
-      </c>
-      <c r="C26">
-        <f>2050-2012</f>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>308</v>
-      </c>
-      <c r="B27">
-        <f>B26/C26*-1</f>
-        <v>2.6315789473684205E-4</v>
-      </c>
-      <c r="C27" t="s">
-        <v>306</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B39"/>
   <sheetViews>
@@ -56271,13 +57390,13 @@
       <c r="A10" t="s">
         <v>174</v>
       </c>
-      <c r="B10" s="58">
+      <c r="B10" s="56">
         <v>349588.57142857142</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B11" s="55">
         <f>'figure 107'!B8</f>
@@ -56286,10 +57405,10 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B12">
-        <f>(B11*10^3)*units_convertor!B17</f>
+        <f>(B11*10^3)*units_convertor!B20</f>
         <v>359611510.9969303</v>
       </c>
     </row>
@@ -56345,7 +57464,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -56374,7 +57493,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -56414,7 +57533,7 @@
         <v>155</v>
       </c>
       <c r="B12" s="4">
-        <f>ANPtrilhos!A4*units_convertor!A11</f>
+        <f>ANPtrilhos!A4*units_convertor!A14</f>
         <v>6312200000000</v>
       </c>
     </row>
@@ -56460,7 +57579,7 @@
         <v>153</v>
       </c>
       <c r="C22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -56499,7 +57618,325 @@
         <v>5.4054054054054022E-4</v>
       </c>
       <c r="D26" t="s">
-        <v>311</v>
+        <v>310</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="38.3984375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="4" max="5" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="21">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="91" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="92">
+        <f>'Aircraft Fuel Consump'!F14*10^9</f>
+        <v>279171051362.82843</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="91" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="93">
+        <f>'Aircraft Fuel Consump'!C5*10^3</f>
+        <v>8816227.4940261375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="91" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="93">
+        <f>B12*units_convertor!B11</f>
+        <v>303454550.34437966</v>
+      </c>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="91" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="91">
+        <f>B13*units_convertor!B23</f>
+        <v>287619417958304.94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="91" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="94">
+        <f>(B11*units_convertor!A2)/B14</f>
+        <v>6.0311920727660728E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="B24" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="B25">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="B26">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C26">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>308</v>
+      </c>
+      <c r="B27" s="52">
+        <f>(B26-B25)</f>
+        <v>-9.9999999999999985E-3</v>
+      </c>
+      <c r="C27">
+        <f>2050-2012</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>307</v>
+      </c>
+      <c r="B28" s="97">
+        <f>B27/C27*-1</f>
+        <v>2.6315789473684205E-4</v>
+      </c>
+      <c r="C28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="29.06640625" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="B10" s="21">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="95" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="92">
+        <f>'Aircraft Fuel Consump'!F10*10^6</f>
+        <v>8959571428.5714283</v>
+      </c>
+      <c r="C11" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.5">
+      <c r="A12" s="95" t="s">
+        <v>321</v>
+      </c>
+      <c r="B12" s="92">
+        <f>'Aircraft Fuel Consump'!C6*10^3</f>
+        <v>459202153.58945727</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="95" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" s="92">
+        <f>B12*units_convertor!B11</f>
+        <v>15805738126.54912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="96">
+        <f>B13*units_convertor!B23</f>
+        <v>1.4980949190579982E+16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="95" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="94">
+        <f>(B11*units_convertor!A2)/B14</f>
+        <v>3.7161983445238052E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -56537,7 +57974,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="26" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -56551,10 +57988,10 @@
         <v>191</v>
       </c>
       <c r="G5" s="28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I5" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -56565,7 +58002,7 @@
         <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G6" t="s">
         <v>195</v>

--- a/InputData/trans/BNVFE/BAU New Veh Fuel Economy.xlsx
+++ b/InputData/trans/BNVFE/BAU New Veh Fuel Economy.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Dropbox (Energy Innovation)\Documents\EPS_Models by Region\Brazil\Model\InputData\trans\BNVFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-brazil\InputData\trans\BNVFE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3D447C-C86A-4BE5-8409-D54692E1F7A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" firstSheet="21" activeTab="22" xr2:uid="{730F6D5A-6C3B-47E7-AA94-50A9B9E008D1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19395" windowHeight="10395" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -71,7 +70,7 @@
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1258,7 +1257,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="12">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2557,176 +2556,176 @@
     <xf numFmtId="9" fontId="0" fillId="40" borderId="0" xfId="153" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="34" borderId="0" xfId="153" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="40" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="40" borderId="26" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="40" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="42" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="40" borderId="26" xfId="155" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="156">
-    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="8"/>
+    <cellStyle name="20% - Accent2 2" xfId="9"/>
+    <cellStyle name="20% - Accent3 2" xfId="10"/>
+    <cellStyle name="20% - Accent4 2" xfId="11"/>
+    <cellStyle name="20% - Accent5 2" xfId="12"/>
+    <cellStyle name="20% - Accent6 2" xfId="13"/>
+    <cellStyle name="40% - Accent1 2" xfId="14"/>
+    <cellStyle name="40% - Accent2 2" xfId="15"/>
+    <cellStyle name="40% - Accent3 2" xfId="16"/>
+    <cellStyle name="40% - Accent4 2" xfId="17"/>
+    <cellStyle name="40% - Accent5 2" xfId="18"/>
+    <cellStyle name="40% - Accent6 2" xfId="19"/>
+    <cellStyle name="60% - Accent1 2" xfId="20"/>
+    <cellStyle name="60% - Accent2 2" xfId="21"/>
+    <cellStyle name="60% - Accent3 2" xfId="22"/>
+    <cellStyle name="60% - Accent4 2" xfId="23"/>
+    <cellStyle name="60% - Accent5 2" xfId="24"/>
+    <cellStyle name="60% - Accent6 2" xfId="25"/>
+    <cellStyle name="Accent1 2" xfId="26"/>
+    <cellStyle name="Accent2 2" xfId="27"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="29"/>
+    <cellStyle name="Accent5 2" xfId="30"/>
+    <cellStyle name="Accent6 2" xfId="31"/>
+    <cellStyle name="Bad 2" xfId="32"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="33"/>
+    <cellStyle name="Calculation 2" xfId="34"/>
+    <cellStyle name="Check Cell 2" xfId="35"/>
+    <cellStyle name="Column heading" xfId="36"/>
     <cellStyle name="Comma" xfId="155" builtinId="3"/>
-    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="Comma 2" xfId="37"/>
+    <cellStyle name="Comma 2 2" xfId="38"/>
+    <cellStyle name="Comma 3" xfId="39"/>
+    <cellStyle name="Comma 4" xfId="40"/>
+    <cellStyle name="Comma 5" xfId="41"/>
+    <cellStyle name="Comma 6" xfId="42"/>
+    <cellStyle name="Comma 7" xfId="43"/>
+    <cellStyle name="Comma 8" xfId="44"/>
+    <cellStyle name="Corner heading" xfId="45"/>
+    <cellStyle name="Currency 2" xfId="46"/>
+    <cellStyle name="Currency 3" xfId="47"/>
+    <cellStyle name="Currency 3 2" xfId="48"/>
+    <cellStyle name="Data" xfId="49"/>
+    <cellStyle name="Data 2" xfId="50"/>
+    <cellStyle name="Data no deci" xfId="51"/>
+    <cellStyle name="Data Superscript" xfId="52"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
+    <cellStyle name="Explanatory Text 2" xfId="54"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56"/>
+    <cellStyle name="Good 2" xfId="57"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Heading 1 2" xfId="59"/>
+    <cellStyle name="Heading 2 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="61"/>
+    <cellStyle name="Heading 4 2" xfId="62"/>
+    <cellStyle name="Hed Side" xfId="63"/>
+    <cellStyle name="Hed Side 2" xfId="64"/>
+    <cellStyle name="Hed Side bold" xfId="65"/>
+    <cellStyle name="Hed Side Indent" xfId="66"/>
+    <cellStyle name="Hed Side Regular" xfId="67"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
+    <cellStyle name="Hed Top" xfId="69"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71"/>
     <cellStyle name="Hyperlink" xfId="154" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="72"/>
+    <cellStyle name="Input 2" xfId="73"/>
+    <cellStyle name="Linked Cell 2" xfId="74"/>
+    <cellStyle name="Neutral 2" xfId="75"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Normal 10" xfId="76"/>
+    <cellStyle name="Normal 11" xfId="77"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="78"/>
+    <cellStyle name="Normal 2 3" xfId="79"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Normal 3 2" xfId="81"/>
+    <cellStyle name="Normal 3 2 2" xfId="82"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
+    <cellStyle name="Normal 3 2 3" xfId="84"/>
+    <cellStyle name="Normal 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 3 2" xfId="86"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
+    <cellStyle name="Normal 3 3 3" xfId="88"/>
+    <cellStyle name="Normal 3 4" xfId="89"/>
+    <cellStyle name="Normal 3 4 2" xfId="90"/>
+    <cellStyle name="Normal 3 5" xfId="91"/>
+    <cellStyle name="Normal 3 6" xfId="92"/>
+    <cellStyle name="Normal 3 7" xfId="93"/>
+    <cellStyle name="Normal 4" xfId="94"/>
+    <cellStyle name="Normal 4 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 2" xfId="96"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
+    <cellStyle name="Normal 4 2 3" xfId="98"/>
+    <cellStyle name="Normal 4 3" xfId="99"/>
+    <cellStyle name="Normal 4 3 2" xfId="100"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
+    <cellStyle name="Normal 4 3 3" xfId="102"/>
+    <cellStyle name="Normal 4 4" xfId="103"/>
+    <cellStyle name="Normal 4 4 2" xfId="104"/>
+    <cellStyle name="Normal 4 5" xfId="105"/>
+    <cellStyle name="Normal 4 6" xfId="106"/>
+    <cellStyle name="Normal 4 7" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 5 2" xfId="109"/>
+    <cellStyle name="Normal 5 3" xfId="110"/>
+    <cellStyle name="Normal 6" xfId="111"/>
+    <cellStyle name="Normal 6 2" xfId="112"/>
+    <cellStyle name="Normal 7" xfId="113"/>
+    <cellStyle name="Normal 7 2" xfId="114"/>
+    <cellStyle name="Normal 8" xfId="115"/>
+    <cellStyle name="Normal 9" xfId="116"/>
+    <cellStyle name="Note 2" xfId="117"/>
+    <cellStyle name="Note 2 2" xfId="118"/>
+    <cellStyle name="Output 2" xfId="119"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Parent row 2" xfId="120"/>
     <cellStyle name="Percent" xfId="153" builtinId="5"/>
-    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Percent 2" xfId="121"/>
+    <cellStyle name="Percent 2 2" xfId="122"/>
+    <cellStyle name="Percent 3" xfId="123"/>
+    <cellStyle name="Percent 3 2" xfId="124"/>
+    <cellStyle name="Percent 4" xfId="125"/>
+    <cellStyle name="Reference" xfId="126"/>
+    <cellStyle name="Row heading" xfId="127"/>
+    <cellStyle name="Source Hed" xfId="128"/>
+    <cellStyle name="Source Letter" xfId="129"/>
+    <cellStyle name="Source Superscript" xfId="130"/>
+    <cellStyle name="Source Superscript 2" xfId="131"/>
+    <cellStyle name="Source Text" xfId="132"/>
+    <cellStyle name="Source Text 2" xfId="133"/>
+    <cellStyle name="State" xfId="134"/>
+    <cellStyle name="Superscript" xfId="135"/>
+    <cellStyle name="Table Data" xfId="136"/>
+    <cellStyle name="Table Head Top" xfId="137"/>
+    <cellStyle name="Table Hed Side" xfId="138"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Table title 2" xfId="139"/>
+    <cellStyle name="Title 2" xfId="140"/>
+    <cellStyle name="Title Text" xfId="141"/>
+    <cellStyle name="Title Text 1" xfId="142"/>
+    <cellStyle name="Title Text 2" xfId="143"/>
+    <cellStyle name="Title-1" xfId="144"/>
+    <cellStyle name="Title-2" xfId="145"/>
+    <cellStyle name="Title-3" xfId="146"/>
+    <cellStyle name="Total 2" xfId="147"/>
+    <cellStyle name="Warning Text 2" xfId="148"/>
+    <cellStyle name="Wrap" xfId="149"/>
+    <cellStyle name="Wrap Bold" xfId="150"/>
+    <cellStyle name="Wrap Title" xfId="151"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3542,23 +3541,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3594,23 +3576,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3786,7 +3751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD190"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37341,15 +37306,15 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B63" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B8" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B17" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B26" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B34" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B48" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B56" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="B41" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B78" r:id="rId9" xr:uid="{88250872-3BE8-4809-AAF6-4E90E919070B}"/>
+    <hyperlink ref="B63" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId2"/>
+    <hyperlink ref="B17" r:id="rId3"/>
+    <hyperlink ref="B26" r:id="rId4"/>
+    <hyperlink ref="B34" r:id="rId5"/>
+    <hyperlink ref="B48" r:id="rId6"/>
+    <hyperlink ref="B56" r:id="rId7"/>
+    <hyperlink ref="B41" r:id="rId8"/>
+    <hyperlink ref="B78" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -37357,7 +37322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37561,7 +37526,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37611,7 +37576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37641,7 +37606,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37690,7 +37655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37805,7 +37770,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -37907,7 +37872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38069,7 +38034,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38215,7 +38180,7 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38289,7 +38254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -38387,40 +38352,40 @@
       <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="21">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="111" t="s">
         <v>242</v>
       </c>
-      <c r="B14" s="105"/>
-      <c r="C14" s="105"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="105"/>
-      <c r="K14" s="105"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="105"/>
-      <c r="N14" s="105"/>
+      <c r="B14" s="111"/>
+      <c r="C14" s="111"/>
+      <c r="D14" s="111"/>
+      <c r="E14" s="111"/>
+      <c r="F14" s="111"/>
+      <c r="G14" s="111"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="111"/>
+      <c r="K14" s="111"/>
+      <c r="L14" s="111"/>
+      <c r="M14" s="111"/>
+      <c r="N14" s="111"/>
     </row>
     <row r="15" spans="1:14" ht="16.149999999999999" thickBot="1">
-      <c r="A15" s="106" t="s">
+      <c r="A15" s="112" t="s">
         <v>243</v>
       </c>
-      <c r="B15" s="106"/>
-      <c r="C15" s="106"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="106"/>
-      <c r="N15" s="106"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="112"/>
+      <c r="J15" s="112"/>
+      <c r="K15" s="112"/>
+      <c r="L15" s="112"/>
+      <c r="M15" s="112"/>
+      <c r="N15" s="112"/>
     </row>
     <row r="16" spans="1:14" ht="14.65" thickBot="1">
       <c r="A16" s="43"/>
@@ -40796,14 +40761,14 @@
     <mergeCell ref="A15:N15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1" xr:uid="{90B25065-98AF-40EC-9EC5-C549B8D2D7C0}"/>
+    <hyperlink ref="I8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -40959,8 +40924,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D18" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D19" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D18" r:id="rId1"/>
+    <hyperlink ref="D19" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -40968,7 +40933,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41023,7 +40988,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -41031,7 +40996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780079A6-729A-4BF6-A60D-8613DB4EC2FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41044,7 +41009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41125,11 +41090,11 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -41688,7 +41653,7 @@
       <c r="F11">
         <v>8.7048677754535786E-2</v>
       </c>
-      <c r="I11" s="107" t="s">
+      <c r="I11" s="105" t="s">
         <v>384</v>
       </c>
     </row>
@@ -42182,139 +42147,139 @@
       <c r="F16">
         <v>0</v>
       </c>
-      <c r="K16" s="108">
+      <c r="K16" s="106">
         <f>SUM(K13:K15)</f>
         <v>120062285703208.23</v>
       </c>
-      <c r="L16" s="108">
+      <c r="L16" s="106">
         <f t="shared" ref="L16:AR16" si="0">SUM(L13:L15)</f>
         <v>125222436550851.09</v>
       </c>
-      <c r="M16" s="108">
+      <c r="M16" s="106">
         <f t="shared" si="0"/>
         <v>130841787410825.59</v>
       </c>
-      <c r="N16" s="108">
+      <c r="N16" s="106">
         <f t="shared" si="0"/>
         <v>136954936909647.2</v>
       </c>
-      <c r="O16" s="108">
+      <c r="O16" s="106">
         <f t="shared" si="0"/>
         <v>143651317601530.53</v>
       </c>
-      <c r="P16" s="108">
+      <c r="P16" s="106">
         <f t="shared" si="0"/>
         <v>150985989668157</v>
       </c>
-      <c r="Q16" s="108">
+      <c r="Q16" s="106">
         <f t="shared" si="0"/>
         <v>158980245644967.91</v>
       </c>
-      <c r="R16" s="108">
+      <c r="R16" s="106">
         <f t="shared" si="0"/>
         <v>167612909015385.47</v>
       </c>
-      <c r="S16" s="108">
+      <c r="S16" s="106">
         <f t="shared" si="0"/>
         <v>176226946308777.75</v>
       </c>
-      <c r="T16" s="108">
+      <c r="T16" s="106">
         <f t="shared" si="0"/>
         <v>184273479514302.25</v>
       </c>
-      <c r="U16" s="108">
+      <c r="U16" s="106">
         <f t="shared" si="0"/>
         <v>191799878334263.22</v>
       </c>
-      <c r="V16" s="108">
+      <c r="V16" s="106">
         <f t="shared" si="0"/>
         <v>198838374046822.38</v>
       </c>
-      <c r="W16" s="108">
+      <c r="W16" s="106">
         <f t="shared" si="0"/>
         <v>205419107525463</v>
       </c>
-      <c r="X16" s="108">
+      <c r="X16" s="106">
         <f t="shared" si="0"/>
         <v>211570277896100</v>
       </c>
-      <c r="Y16" s="108">
+      <c r="Y16" s="106">
         <f t="shared" si="0"/>
         <v>217336000393173.84</v>
       </c>
-      <c r="Z16" s="108">
+      <c r="Z16" s="106">
         <f t="shared" si="0"/>
         <v>222755892217345.38</v>
       </c>
-      <c r="AA16" s="108">
+      <c r="AA16" s="106">
         <f t="shared" si="0"/>
         <v>227862150680357.19</v>
       </c>
-      <c r="AB16" s="108">
+      <c r="AB16" s="106">
         <f t="shared" si="0"/>
         <v>232691363772114.59</v>
       </c>
-      <c r="AC16" s="108">
+      <c r="AC16" s="106">
         <f t="shared" si="0"/>
         <v>237102223499737.22</v>
       </c>
-      <c r="AD16" s="108">
+      <c r="AD16" s="106">
         <f t="shared" si="0"/>
         <v>241017198099816.56</v>
       </c>
-      <c r="AE16" s="108">
+      <c r="AE16" s="106">
         <f t="shared" si="0"/>
         <v>244497221223826.41</v>
       </c>
-      <c r="AF16" s="108">
+      <c r="AF16" s="106">
         <f t="shared" si="0"/>
         <v>247574100504740.09</v>
       </c>
-      <c r="AG16" s="108">
+      <c r="AG16" s="106">
         <f t="shared" si="0"/>
         <v>250293751878965</v>
       </c>
-      <c r="AH16" s="108">
+      <c r="AH16" s="106">
         <f t="shared" si="0"/>
         <v>252696972462987.28</v>
       </c>
-      <c r="AI16" s="108">
+      <c r="AI16" s="106">
         <f t="shared" si="0"/>
         <v>254822131381383.34</v>
       </c>
-      <c r="AJ16" s="108">
+      <c r="AJ16" s="106">
         <f t="shared" si="0"/>
         <v>256704382678802.69</v>
       </c>
-      <c r="AK16" s="108">
+      <c r="AK16" s="106">
         <f t="shared" si="0"/>
         <v>258374696279324.5</v>
       </c>
-      <c r="AL16" s="108">
+      <c r="AL16" s="106">
         <f t="shared" si="0"/>
         <v>259862086903347.5</v>
       </c>
-      <c r="AM16" s="108">
+      <c r="AM16" s="106">
         <f t="shared" si="0"/>
         <v>261191839526366.16</v>
       </c>
-      <c r="AN16" s="108">
+      <c r="AN16" s="106">
         <f t="shared" si="0"/>
         <v>262388277951264.31</v>
       </c>
-      <c r="AO16" s="108">
+      <c r="AO16" s="106">
         <f t="shared" si="0"/>
         <v>263473146983350.19</v>
       </c>
-      <c r="AP16" s="108">
+      <c r="AP16" s="106">
         <f t="shared" si="0"/>
         <v>264464945107297.25</v>
       </c>
-      <c r="AQ16" s="108">
+      <c r="AQ16" s="106">
         <f t="shared" si="0"/>
         <v>265379784616347.31</v>
       </c>
-      <c r="AR16" s="108">
+      <c r="AR16" s="106">
         <f t="shared" si="0"/>
         <v>266231285184595.69</v>
       </c>
@@ -42436,139 +42401,139 @@
       <c r="I19" t="s">
         <v>387</v>
       </c>
-      <c r="K19" s="111">
+      <c r="K19" s="109">
         <f>K18*10^3</f>
         <v>164878851200</v>
       </c>
-      <c r="L19" s="111">
+      <c r="L19" s="109">
         <f t="shared" ref="L19:AR19" si="1">L18*10^3</f>
         <v>172476613600.00003</v>
       </c>
-      <c r="M19" s="111">
+      <c r="M19" s="109">
         <f t="shared" si="1"/>
         <v>180682556000</v>
       </c>
-      <c r="N19" s="111">
+      <c r="N19" s="109">
         <f t="shared" si="1"/>
         <v>189542353200</v>
       </c>
-      <c r="O19" s="111">
+      <c r="O19" s="109">
         <f t="shared" si="1"/>
         <v>199181827200</v>
       </c>
-      <c r="P19" s="111">
+      <c r="P19" s="109">
         <f t="shared" si="1"/>
         <v>209680173600.00003</v>
       </c>
-      <c r="Q19" s="111">
+      <c r="Q19" s="109">
         <f t="shared" si="1"/>
         <v>221066006399.99997</v>
       </c>
-      <c r="R19" s="111">
+      <c r="R19" s="109">
         <f t="shared" si="1"/>
         <v>233314040400</v>
       </c>
-      <c r="S19" s="111">
+      <c r="S19" s="109">
         <f t="shared" si="1"/>
         <v>245509882400</v>
       </c>
-      <c r="T19" s="111">
+      <c r="T19" s="109">
         <f t="shared" si="1"/>
         <v>256889526400</v>
       </c>
-      <c r="U19" s="111">
+      <c r="U19" s="109">
         <f t="shared" si="1"/>
         <v>267522012400</v>
       </c>
-      <c r="V19" s="111">
+      <c r="V19" s="109">
         <f t="shared" si="1"/>
         <v>277454900800</v>
       </c>
-      <c r="W19" s="111">
+      <c r="W19" s="109">
         <f t="shared" si="1"/>
         <v>286732554800</v>
       </c>
-      <c r="X19" s="111">
+      <c r="X19" s="109">
         <f t="shared" si="1"/>
         <v>295396411600</v>
       </c>
-      <c r="Y19" s="111">
+      <c r="Y19" s="109">
         <f t="shared" si="1"/>
         <v>303509750000</v>
       </c>
-      <c r="Z19" s="111">
+      <c r="Z19" s="109">
         <f t="shared" si="1"/>
         <v>311128921200</v>
       </c>
-      <c r="AA19" s="111">
+      <c r="AA19" s="109">
         <f t="shared" si="1"/>
         <v>318299719200</v>
       </c>
-      <c r="AB19" s="111">
+      <c r="AB19" s="109">
         <f t="shared" si="1"/>
         <v>325074235200</v>
       </c>
-      <c r="AC19" s="111">
+      <c r="AC19" s="109">
         <f t="shared" si="1"/>
         <v>331258311600</v>
       </c>
-      <c r="AD19" s="111">
+      <c r="AD19" s="109">
         <f t="shared" si="1"/>
         <v>336744190000</v>
       </c>
-      <c r="AE19" s="111">
+      <c r="AE19" s="109">
         <f t="shared" si="1"/>
         <v>341618388800</v>
       </c>
-      <c r="AF19" s="111">
+      <c r="AF19" s="109">
         <f t="shared" si="1"/>
         <v>345928121200</v>
       </c>
-      <c r="AG19" s="111">
+      <c r="AG19" s="109">
         <f t="shared" si="1"/>
         <v>349737644800</v>
       </c>
-      <c r="AH19" s="111">
+      <c r="AH19" s="109">
         <f t="shared" si="1"/>
         <v>353104055600</v>
       </c>
-      <c r="AI19" s="111">
+      <c r="AI19" s="109">
         <f t="shared" si="1"/>
         <v>356081074400</v>
       </c>
-      <c r="AJ19" s="111">
+      <c r="AJ19" s="109">
         <f t="shared" si="1"/>
         <v>358717915600</v>
       </c>
-      <c r="AK19" s="111">
+      <c r="AK19" s="109">
         <f t="shared" si="1"/>
         <v>361057940400</v>
       </c>
-      <c r="AL19" s="111">
+      <c r="AL19" s="109">
         <f t="shared" si="1"/>
         <v>363141744800</v>
       </c>
-      <c r="AM19" s="111">
+      <c r="AM19" s="109">
         <f t="shared" si="1"/>
         <v>365004732400</v>
       </c>
-      <c r="AN19" s="111">
+      <c r="AN19" s="109">
         <f t="shared" si="1"/>
         <v>366680940000</v>
       </c>
-      <c r="AO19" s="111">
+      <c r="AO19" s="109">
         <f t="shared" si="1"/>
         <v>368200799200.00006</v>
       </c>
-      <c r="AP19" s="111">
+      <c r="AP19" s="109">
         <f t="shared" si="1"/>
         <v>369590208400</v>
       </c>
-      <c r="AQ19" s="111">
+      <c r="AQ19" s="109">
         <f t="shared" si="1"/>
         <v>370871730400</v>
       </c>
-      <c r="AR19" s="111">
+      <c r="AR19" s="109">
         <f t="shared" si="1"/>
         <v>372064458400</v>
       </c>
@@ -42577,139 +42542,139 @@
       <c r="I20" t="s">
         <v>385</v>
       </c>
-      <c r="K20" s="110">
+      <c r="K20" s="108">
         <f>K19*units_convertor!$A$2</f>
         <v>102450936648.99519</v>
       </c>
-      <c r="L20" s="110">
+      <c r="L20" s="108">
         <f>L19*units_convertor!$A$2</f>
         <v>107171965869.24562</v>
       </c>
-      <c r="M20" s="110">
+      <c r="M20" s="108">
         <f>M19*units_convertor!$A$2</f>
         <v>112270900504.276</v>
       </c>
-      <c r="N20" s="110">
+      <c r="N20" s="108">
         <f>N19*units_convertor!$A$2</f>
         <v>117776121550.2372</v>
       </c>
-      <c r="O20" s="110">
+      <c r="O20" s="108">
         <f>O19*units_convertor!$A$2</f>
         <v>123765811149.0912</v>
       </c>
-      <c r="P20" s="110">
+      <c r="P20" s="108">
         <f>P19*units_convertor!$A$2</f>
         <v>130289179150.00562</v>
       </c>
-      <c r="Q20" s="110">
+      <c r="Q20" s="108">
         <f>Q19*units_convertor!$A$2</f>
         <v>137364005462.77438</v>
       </c>
-      <c r="R20" s="110">
+      <c r="R20" s="108">
         <f>R19*units_convertor!$A$2</f>
         <v>144974578597.3884</v>
       </c>
-      <c r="S20" s="110">
+      <c r="S20" s="108">
         <f>S19*units_convertor!$A$2</f>
         <v>152552721136.77042</v>
       </c>
-      <c r="T20" s="110">
+      <c r="T20" s="108">
         <f>T19*units_convertor!$A$2</f>
         <v>159623701908.6944</v>
       </c>
-      <c r="U20" s="110">
+      <c r="U20" s="108">
         <f>U19*units_convertor!$A$2</f>
         <v>166230420367.0004</v>
       </c>
-      <c r="V20" s="110">
+      <c r="V20" s="108">
         <f>V19*units_convertor!$A$2</f>
         <v>172402429164.9968</v>
       </c>
-      <c r="W20" s="110">
+      <c r="W20" s="108">
         <f>W19*units_convertor!$A$2</f>
         <v>178167294308.6308</v>
       </c>
-      <c r="X20" s="110">
+      <c r="X20" s="108">
         <f>X19*units_convertor!$A$2</f>
         <v>183550763672.30359</v>
       </c>
-      <c r="Y20" s="110">
+      <c r="Y20" s="108">
         <f>Y19*units_convertor!$A$2</f>
         <v>188592156867.25</v>
       </c>
-      <c r="Z20" s="110">
+      <c r="Z20" s="108">
         <f>Z19*units_convertor!$A$2</f>
         <v>193326488894.96521</v>
       </c>
-      <c r="AA20" s="110">
+      <c r="AA20" s="108">
         <f>AA19*units_convertor!$A$2</f>
         <v>197782214819.02319</v>
       </c>
-      <c r="AB20" s="110">
+      <c r="AB20" s="108">
         <f>AB19*units_convertor!$A$2</f>
         <v>201991702600.4592</v>
       </c>
-      <c r="AC20" s="110">
+      <c r="AC20" s="108">
         <f>AC19*units_convertor!$A$2</f>
         <v>205834308337.20361</v>
       </c>
-      <c r="AD20" s="110">
+      <c r="AD20" s="108">
         <f>AD19*units_convertor!$A$2</f>
         <v>209243074084.48999</v>
       </c>
-      <c r="AE20" s="110">
+      <c r="AE20" s="108">
         <f>AE19*units_convertor!$A$2</f>
         <v>212271759867.0448</v>
       </c>
-      <c r="AF20" s="110">
+      <c r="AF20" s="108">
         <f>AF19*units_convertor!$A$2</f>
         <v>214949702598.16519</v>
       </c>
-      <c r="AG20" s="110">
+      <c r="AG20" s="108">
         <f>AG19*units_convertor!$A$2</f>
         <v>217316830087.02081</v>
       </c>
-      <c r="AH20" s="110">
+      <c r="AH20" s="108">
         <f>AH19*units_convertor!$A$2</f>
         <v>219408620132.2276</v>
       </c>
-      <c r="AI20" s="110">
+      <c r="AI20" s="108">
         <f>AI19*units_convertor!$A$2</f>
         <v>221258453281.00241</v>
       </c>
-      <c r="AJ20" s="110">
+      <c r="AJ20" s="108">
         <f>AJ19*units_convertor!$A$2</f>
         <v>222896909934.2876</v>
       </c>
-      <c r="AK20" s="110">
+      <c r="AK20" s="108">
         <f>AK19*units_convertor!$A$2</f>
         <v>224350933484.28839</v>
       </c>
-      <c r="AL20" s="110">
+      <c r="AL20" s="108">
         <f>AL19*units_convertor!$A$2</f>
         <v>225645749108.12079</v>
       </c>
-      <c r="AM20" s="110">
+      <c r="AM20" s="108">
         <f>AM19*units_convertor!$A$2</f>
         <v>226803355576.12039</v>
       </c>
-      <c r="AN20" s="110">
+      <c r="AN20" s="108">
         <f>AN19*units_convertor!$A$2</f>
         <v>227844902368.73999</v>
       </c>
-      <c r="AO20" s="110">
+      <c r="AO20" s="108">
         <f>AO19*units_convertor!$A$2</f>
         <v>228789298799.70325</v>
       </c>
-      <c r="AP20" s="110">
+      <c r="AP20" s="108">
         <f>AP19*units_convertor!$A$2</f>
         <v>229652637383.7164</v>
       </c>
-      <c r="AQ20" s="110">
+      <c r="AQ20" s="108">
         <f>AQ19*units_convertor!$A$2</f>
         <v>230448937990.37839</v>
       </c>
-      <c r="AR20" s="110">
+      <c r="AR20" s="108">
         <f>AR19*units_convertor!$A$2</f>
         <v>231190064580.4664</v>
       </c>
@@ -42857,139 +42822,139 @@
       <c r="I22" t="s">
         <v>386</v>
       </c>
-      <c r="K22" s="112">
+      <c r="K22" s="110">
         <f>K20/K16</f>
         <v>8.5331489442281672E-4</v>
       </c>
-      <c r="L22" s="109">
+      <c r="L22" s="107">
         <f t="shared" ref="L22:AR22" si="3">L20/L16</f>
         <v>8.5585274349556822E-4</v>
       </c>
-      <c r="M22" s="109">
+      <c r="M22" s="107">
         <f t="shared" si="3"/>
         <v>8.5806608672931448E-4</v>
       </c>
-      <c r="N22" s="109">
+      <c r="N22" s="107">
         <f t="shared" si="3"/>
         <v>8.5996258483136848E-4</v>
       </c>
-      <c r="O22" s="109">
+      <c r="O22" s="107">
         <f t="shared" si="3"/>
         <v>8.6157101247341802E-4</v>
       </c>
-      <c r="P22" s="109">
+      <c r="P22" s="107">
         <f t="shared" si="3"/>
         <v>8.62922311112179E-4</v>
       </c>
-      <c r="Q22" s="109">
+      <c r="Q22" s="107">
         <f t="shared" si="3"/>
         <v>8.6403191104342258E-4</v>
       </c>
-      <c r="R22" s="109">
+      <c r="R22" s="107">
         <f t="shared" si="3"/>
         <v>8.6493683242548419E-4</v>
       </c>
-      <c r="S22" s="109">
+      <c r="S22" s="107">
         <f t="shared" si="3"/>
         <v>8.6566058331098629E-4</v>
       </c>
-      <c r="T22" s="109">
+      <c r="T22" s="107">
         <f t="shared" si="3"/>
         <v>8.6623263602240346E-4</v>
       </c>
-      <c r="U22" s="109">
+      <c r="U22" s="107">
         <f t="shared" si="3"/>
         <v>8.6668678734664727E-4</v>
       </c>
-      <c r="V22" s="109">
+      <c r="V22" s="107">
         <f t="shared" si="3"/>
         <v>8.6704807354942234E-4</v>
       </c>
-      <c r="W22" s="109">
+      <c r="W22" s="107">
         <f t="shared" si="3"/>
         <v>8.6733554855185921E-4</v>
       </c>
-      <c r="X22" s="109">
+      <c r="X22" s="107">
         <f t="shared" si="3"/>
         <v>8.6756403355694176E-4</v>
       </c>
-      <c r="Y22" s="109">
+      <c r="Y22" s="107">
         <f t="shared" si="3"/>
         <v>8.6774467426508034E-4</v>
       </c>
-      <c r="Z22" s="109">
+      <c r="Z22" s="107">
         <f t="shared" si="3"/>
         <v>8.6788496129356892E-4</v>
       </c>
-      <c r="AA22" s="109">
+      <c r="AA22" s="107">
         <f t="shared" si="3"/>
         <v>8.679906435907829E-4</v>
       </c>
-      <c r="AB22" s="109">
+      <c r="AB22" s="107">
         <f t="shared" si="3"/>
         <v>8.6806703663604384E-4</v>
       </c>
-      <c r="AC22" s="109">
+      <c r="AC22" s="107">
         <f t="shared" si="3"/>
         <v>8.6812474931274419E-4</v>
       </c>
-      <c r="AD22" s="109">
+      <c r="AD22" s="107">
         <f t="shared" si="3"/>
         <v>8.6816656958161383E-4</v>
       </c>
-      <c r="AE22" s="109">
+      <c r="AE22" s="107">
         <f t="shared" si="3"/>
         <v>8.6819702409917938E-4</v>
       </c>
-      <c r="AF22" s="109">
+      <c r="AF22" s="107">
         <f t="shared" si="3"/>
         <v>8.682237041755898E-4</v>
       </c>
-      <c r="AG22" s="109">
+      <c r="AG22" s="107">
         <f t="shared" si="3"/>
         <v>8.6824712345240287E-4</v>
       </c>
-      <c r="AH22" s="109">
+      <c r="AH22" s="107">
         <f t="shared" si="3"/>
         <v>8.6826770417427362E-4</v>
       </c>
-      <c r="AI22" s="109">
+      <c r="AI22" s="107">
         <f t="shared" si="3"/>
         <v>8.6828585916602608E-4</v>
       </c>
-      <c r="AJ22" s="109">
+      <c r="AJ22" s="107">
         <f t="shared" si="3"/>
         <v>8.6830192616221846E-4</v>
       </c>
-      <c r="AK22" s="109">
+      <c r="AK22" s="107">
         <f t="shared" si="3"/>
         <v>8.6831619626461562E-4</v>
       </c>
-      <c r="AL22" s="109">
+      <c r="AL22" s="107">
         <f t="shared" si="3"/>
         <v>8.6832885780697565E-4</v>
       </c>
-      <c r="AM22" s="109">
+      <c r="AM22" s="107">
         <f t="shared" si="3"/>
         <v>8.6834012880109761E-4</v>
       </c>
-      <c r="AN22" s="109">
+      <c r="AN22" s="107">
         <f t="shared" si="3"/>
         <v>8.6835015705640493E-4</v>
       </c>
-      <c r="AO22" s="109">
+      <c r="AO22" s="107">
         <f t="shared" si="3"/>
         <v>8.6835907726930995E-4</v>
       </c>
-      <c r="AP22" s="109">
+      <c r="AP22" s="107">
         <f t="shared" si="3"/>
         <v>8.6836702418365127E-4</v>
       </c>
-      <c r="AQ22" s="109">
+      <c r="AQ22" s="107">
         <f t="shared" si="3"/>
         <v>8.6837412398812683E-4</v>
       </c>
-      <c r="AR22" s="109">
+      <c r="AR22" s="107">
         <f t="shared" si="3"/>
         <v>8.6838053018512495E-4</v>
       </c>
@@ -43001,7 +42966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -43165,7 +43130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C9823B3-B9A8-45BA-AB9B-6560A8BB5A72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -45160,13 +45125,15 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AK15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:AK2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
@@ -45296,144 +45263,144 @@
         <v>1.2269199212468287E-3</v>
       </c>
       <c r="C2" s="9">
-        <f>C$4/(1-'Calculations Etc'!$B$3)</f>
+        <f>B2</f>
         <v>1.2269199212468287E-3</v>
       </c>
       <c r="D2" s="9">
-        <f>D$4/(1-'Calculations Etc'!$B$3)</f>
+        <f t="shared" ref="D2:AK2" si="0">C2</f>
         <v>1.2269199212468287E-3</v>
       </c>
-      <c r="E2" s="4">
-        <f>$D2+$D2*(E$1-$D$1)/($AK$1-$D$1)</f>
-        <v>1.264099312799763E-3</v>
-      </c>
-      <c r="F2" s="4">
-        <f t="shared" ref="F2:AK2" si="0">$D2+$D2*(F$1-$D$1)/($AK$1-$D$1)</f>
-        <v>1.3012787043526972E-3</v>
-      </c>
-      <c r="G2" s="4">
+      <c r="E2" s="9">
         <f t="shared" si="0"/>
-        <v>1.3384580959056314E-3</v>
-      </c>
-      <c r="H2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="F2" s="9">
         <f t="shared" si="0"/>
-        <v>1.3756374874585656E-3</v>
-      </c>
-      <c r="I2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="G2" s="9">
         <f t="shared" si="0"/>
-        <v>1.4128168790114998E-3</v>
-      </c>
-      <c r="J2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="H2" s="9">
         <f t="shared" si="0"/>
-        <v>1.449996270564434E-3</v>
-      </c>
-      <c r="K2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="I2" s="9">
         <f t="shared" si="0"/>
-        <v>1.4871756621173682E-3</v>
-      </c>
-      <c r="L2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="J2" s="9">
         <f t="shared" si="0"/>
-        <v>1.5243550536703024E-3</v>
-      </c>
-      <c r="M2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="K2" s="9">
         <f t="shared" si="0"/>
-        <v>1.5615344452232366E-3</v>
-      </c>
-      <c r="N2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="L2" s="9">
         <f t="shared" si="0"/>
-        <v>1.5987138367761708E-3</v>
-      </c>
-      <c r="O2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="M2" s="9">
         <f t="shared" si="0"/>
-        <v>1.635893228329105E-3</v>
-      </c>
-      <c r="P2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="N2" s="9">
         <f t="shared" si="0"/>
-        <v>1.6730726198820392E-3</v>
-      </c>
-      <c r="Q2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="O2" s="9">
         <f t="shared" si="0"/>
-        <v>1.7102520114349734E-3</v>
-      </c>
-      <c r="R2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="P2" s="9">
         <f t="shared" si="0"/>
-        <v>1.7474314029879076E-3</v>
-      </c>
-      <c r="S2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="Q2" s="9">
         <f t="shared" si="0"/>
-        <v>1.7846107945408418E-3</v>
-      </c>
-      <c r="T2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="R2" s="9">
         <f t="shared" si="0"/>
-        <v>1.821790186093776E-3</v>
-      </c>
-      <c r="U2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="S2" s="9">
         <f t="shared" si="0"/>
-        <v>1.8589695776467102E-3</v>
-      </c>
-      <c r="V2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="T2" s="9">
         <f t="shared" si="0"/>
-        <v>1.8961489691996444E-3</v>
-      </c>
-      <c r="W2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="U2" s="9">
         <f t="shared" si="0"/>
-        <v>1.9333283607525786E-3</v>
-      </c>
-      <c r="X2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="V2" s="9">
         <f t="shared" si="0"/>
-        <v>1.9705077523055128E-3</v>
-      </c>
-      <c r="Y2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="W2" s="9">
         <f t="shared" si="0"/>
-        <v>2.007687143858447E-3</v>
-      </c>
-      <c r="Z2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="X2" s="9">
         <f t="shared" si="0"/>
-        <v>2.0448665354113812E-3</v>
-      </c>
-      <c r="AA2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="Y2" s="9">
         <f t="shared" si="0"/>
-        <v>2.0820459269643155E-3</v>
-      </c>
-      <c r="AB2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="Z2" s="9">
         <f t="shared" si="0"/>
-        <v>2.1192253185172497E-3</v>
-      </c>
-      <c r="AC2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="AA2" s="9">
         <f t="shared" si="0"/>
-        <v>2.1564047100701839E-3</v>
-      </c>
-      <c r="AD2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="AB2" s="9">
         <f t="shared" si="0"/>
-        <v>2.1935841016231181E-3</v>
-      </c>
-      <c r="AE2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="AC2" s="9">
         <f t="shared" si="0"/>
-        <v>2.2307634931760523E-3</v>
-      </c>
-      <c r="AF2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="AD2" s="9">
         <f t="shared" si="0"/>
-        <v>2.2679428847289865E-3</v>
-      </c>
-      <c r="AG2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="AE2" s="9">
         <f t="shared" si="0"/>
-        <v>2.3051222762819207E-3</v>
-      </c>
-      <c r="AH2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="AF2" s="9">
         <f t="shared" si="0"/>
-        <v>2.3423016678348549E-3</v>
-      </c>
-      <c r="AI2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="AG2" s="9">
         <f t="shared" si="0"/>
-        <v>2.3794810593877891E-3</v>
-      </c>
-      <c r="AJ2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="AH2" s="9">
         <f t="shared" si="0"/>
-        <v>2.4166604509407233E-3</v>
-      </c>
-      <c r="AK2" s="4">
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="AI2" s="9">
         <f t="shared" si="0"/>
-        <v>2.4538398424936575E-3</v>
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="AJ2" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2269199212468287E-3</v>
+      </c>
+      <c r="AK2" s="9">
+        <f t="shared" si="0"/>
+        <v>1.2269199212468287E-3</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -45901,135 +45868,135 @@
       </c>
       <c r="E6" s="4">
         <f>E4*(1-'Calculations Etc'!$B$8)+E2*'Calculations Etc'!$B$8</f>
-        <v>8.6864578446400832E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="F6" s="4">
         <f>F4*(1-'Calculations Etc'!$B$8)+F2*'Calculations Etc'!$B$8</f>
-        <v>8.890944498181222E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="G6" s="4">
         <f>G4*(1-'Calculations Etc'!$B$8)+G2*'Calculations Etc'!$B$8</f>
-        <v>9.0954311517223597E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="H6" s="4">
         <f>H4*(1-'Calculations Etc'!$B$8)+H2*'Calculations Etc'!$B$8</f>
-        <v>9.2999178052634974E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="I6" s="4">
         <f>I4*(1-'Calculations Etc'!$B$8)+I2*'Calculations Etc'!$B$8</f>
-        <v>9.5044044588046361E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="J6" s="4">
         <f>J4*(1-'Calculations Etc'!$B$8)+J2*'Calculations Etc'!$B$8</f>
-        <v>9.7088911123457738E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="K6" s="4">
         <f>K4*(1-'Calculations Etc'!$B$8)+K2*'Calculations Etc'!$B$8</f>
-        <v>9.9133777658869126E-4</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="L6" s="4">
         <f>L4*(1-'Calculations Etc'!$B$8)+L2*'Calculations Etc'!$B$8</f>
-        <v>1.011786441942805E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="M6" s="4">
         <f>M4*(1-'Calculations Etc'!$B$8)+M2*'Calculations Etc'!$B$8</f>
-        <v>1.0322351072969188E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="N6" s="4">
         <f>N4*(1-'Calculations Etc'!$B$8)+N2*'Calculations Etc'!$B$8</f>
-        <v>1.0526837726510326E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="O6" s="4">
         <f>O4*(1-'Calculations Etc'!$B$8)+O2*'Calculations Etc'!$B$8</f>
-        <v>1.0731324380051463E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="P6" s="4">
         <f>P4*(1-'Calculations Etc'!$B$8)+P2*'Calculations Etc'!$B$8</f>
-        <v>1.0935811033592603E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="Q6" s="4">
         <f>Q4*(1-'Calculations Etc'!$B$8)+Q2*'Calculations Etc'!$B$8</f>
-        <v>1.1140297687133741E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="R6" s="4">
         <f>R4*(1-'Calculations Etc'!$B$8)+R2*'Calculations Etc'!$B$8</f>
-        <v>1.1344784340674879E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="S6" s="4">
         <f>S4*(1-'Calculations Etc'!$B$8)+S2*'Calculations Etc'!$B$8</f>
-        <v>1.1549270994216016E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="T6" s="4">
         <f>T4*(1-'Calculations Etc'!$B$8)+T2*'Calculations Etc'!$B$8</f>
-        <v>1.1753757647757154E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="U6" s="4">
         <f>U4*(1-'Calculations Etc'!$B$8)+U2*'Calculations Etc'!$B$8</f>
-        <v>1.1958244301298292E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="V6" s="4">
         <f>V4*(1-'Calculations Etc'!$B$8)+V2*'Calculations Etc'!$B$8</f>
-        <v>1.2162730954839432E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="W6" s="4">
         <f>W4*(1-'Calculations Etc'!$B$8)+W2*'Calculations Etc'!$B$8</f>
-        <v>1.2367217608380569E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="X6" s="4">
         <f>X4*(1-'Calculations Etc'!$B$8)+X2*'Calculations Etc'!$B$8</f>
-        <v>1.2571704261921707E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="Y6" s="4">
         <f>Y4*(1-'Calculations Etc'!$B$8)+Y2*'Calculations Etc'!$B$8</f>
-        <v>1.2776190915462845E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="Z6" s="4">
         <f>Z4*(1-'Calculations Etc'!$B$8)+Z2*'Calculations Etc'!$B$8</f>
-        <v>1.2980677569003982E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AA6" s="4">
         <f>AA4*(1-'Calculations Etc'!$B$8)+AA2*'Calculations Etc'!$B$8</f>
-        <v>1.3185164222545122E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AB6" s="4">
         <f>AB4*(1-'Calculations Etc'!$B$8)+AB2*'Calculations Etc'!$B$8</f>
-        <v>1.338965087608626E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AC6" s="4">
         <f>AC4*(1-'Calculations Etc'!$B$8)+AC2*'Calculations Etc'!$B$8</f>
-        <v>1.3594137529627398E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AD6" s="4">
         <f>AD4*(1-'Calculations Etc'!$B$8)+AD2*'Calculations Etc'!$B$8</f>
-        <v>1.3798624183168535E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AE6" s="4">
         <f>AE4*(1-'Calculations Etc'!$B$8)+AE2*'Calculations Etc'!$B$8</f>
-        <v>1.4003110836709673E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AF6" s="4">
         <f>AF4*(1-'Calculations Etc'!$B$8)+AF2*'Calculations Etc'!$B$8</f>
-        <v>1.4207597490250813E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AG6" s="4">
         <f>AG4*(1-'Calculations Etc'!$B$8)+AG2*'Calculations Etc'!$B$8</f>
-        <v>1.441208414379195E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AH6" s="4">
         <f>AH4*(1-'Calculations Etc'!$B$8)+AH2*'Calculations Etc'!$B$8</f>
-        <v>1.4616570797333088E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AI6" s="4">
         <f>AI4*(1-'Calculations Etc'!$B$8)+AI2*'Calculations Etc'!$B$8</f>
-        <v>1.4821057450874226E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AJ6" s="4">
         <f>AJ4*(1-'Calculations Etc'!$B$8)+AJ2*'Calculations Etc'!$B$8</f>
-        <v>1.5025544104415364E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
       <c r="AK6" s="4">
         <f>AK4*(1-'Calculations Etc'!$B$8)+AK2*'Calculations Etc'!$B$8</f>
-        <v>1.5230030757956503E-3</v>
+        <v>8.4819711910989455E-4</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -46356,7 +46323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -47533,7 +47500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -48710,7 +48677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -49887,7 +49854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -50010,7 +49977,7 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -51042,7 +51009,7 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -52074,7 +52041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -53037,7 +53004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -54069,7 +54036,7 @@
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -55032,7 +54999,7 @@
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -56068,7 +56035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -57255,7 +57222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -58179,7 +58146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -58303,7 +58270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -58438,7 +58405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -58600,7 +58567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -58762,7 +58729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -58891,7 +58858,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{804A9106-3BA0-4B90-9845-AFCEFC0D7629}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
